--- a/tools/input.xlsx
+++ b/tools/input.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="780">
   <si>
     <t>歌名</t>
   </si>
@@ -1841,6 +1841,102 @@
     <t>https://www.bilibili.com/video/BV1JKWLetEAy</t>
   </si>
   <si>
+    <t>回音</t>
+  </si>
+  <si>
+    <t>余又</t>
+  </si>
+  <si>
+    <t>送你一朵小红花</t>
+  </si>
+  <si>
+    <t>赵英俊</t>
+  </si>
+  <si>
+    <t>人间乐</t>
+  </si>
+  <si>
+    <t>宋佳、蔡忻如、杜鑫艳</t>
+  </si>
+  <si>
+    <t>坠落</t>
+  </si>
+  <si>
+    <t>兰音Reine</t>
+  </si>
+  <si>
+    <t>参商</t>
+  </si>
+  <si>
+    <t>不才</t>
+  </si>
+  <si>
+    <t>窃窃</t>
+  </si>
+  <si>
+    <t>等不来花开</t>
+  </si>
+  <si>
+    <t>pro</t>
+  </si>
+  <si>
+    <t>再见深海</t>
+  </si>
+  <si>
+    <t>唐汉霄</t>
+  </si>
+  <si>
+    <t>人间不值得</t>
+  </si>
+  <si>
+    <t>黄诗扶</t>
+  </si>
+  <si>
+    <t>晴天和猫</t>
+  </si>
+  <si>
+    <t>山河诗旧</t>
+  </si>
+  <si>
+    <t>边靖婷</t>
+  </si>
+  <si>
+    <t>逍遥仙</t>
+  </si>
+  <si>
+    <t>伊格赛听</t>
+  </si>
+  <si>
+    <t>易安难安</t>
+  </si>
+  <si>
+    <t>赤羽</t>
+  </si>
+  <si>
+    <t>纯妹妹</t>
+  </si>
+  <si>
+    <t>招娣</t>
+  </si>
+  <si>
+    <t>周林枫</t>
+  </si>
+  <si>
+    <t>阿嬷</t>
+  </si>
+  <si>
+    <t>只为碎银几两</t>
+  </si>
+  <si>
+    <t>此去半生</t>
+  </si>
+  <si>
+    <t>寄明月</t>
+  </si>
+  <si>
+    <t>SING女团</t>
+  </si>
+  <si>
     <t>标题</t>
   </si>
   <si>
@@ -1862,7 +1958,8 @@
     <t>鱼丸比星海小</t>
   </si>
   <si>
-    <t>这一点已经是江湖上人人皆知的事情，而且也是鱼丸老板自己亲口承认的事情。</t>
+    <t>这一点已经是江湖上人人皆知的事情，而且也是鱼丸老板自己亲口承认的事情。不信请看&lt;br/&gt;
+&lt;img src="https://i.ibb.co/d4B3tXqc/Weixin-Image-20250306075256.png" alt="Weixin-Image-20250306075256" border="0"&gt;。</t>
   </si>
   <si>
     <t>507754474</t>
@@ -1886,6 +1983,109 @@
     <t>3546697030437325</t>
   </si>
   <si>
+    <t>好的主子，你美爆了。</t>
+  </si>
+  <si>
+    <t>直到今天，我们都不知道鱼丸老板，私底下究竟做过什么py交易。&lt;br&gt;
+&lt;img src="https://i.ibb.co/9Hj8vwQY/Weixin-Image-20250306080107.png" alt="Weixin-Image-20250306080107" border="0"&gt;
+&lt;img src="https://i.ibb.co/93ZV5MDd/Weixin-Image-20250306080105.png" alt="Weixin-Image-20250306080105" border="0"&gt;
+&lt;img src="https://i.ibb.co/5X13x2cQ/Weixin-Image-20250306080103.png" alt="Weixin-Image-20250306080103" border="0"&gt;
+&lt;img src="https://i.ibb.co/fd6THrYf/Weixin-Image-20250306080059.png" alt="Weixin-Image-20250306080059" border="0"&gt;</t>
+  </si>
+  <si>
+    <t>鱼丸汉堡守护之战！</t>
+  </si>
+  <si>
+    <t>第一局周周小胜一手，
+&lt;img src="https://i.ibb.co/bhR2N4g/Weixin-Image-20250306081339.png" alt="Weixin-Image-20250306081339" border="0"&gt;。&lt;br/&gt;
+第二局我勒个豆，汉堡改改和鱼丸老板，把周周摁在土里面了。但是原谅我，并没有找到图片。&lt;br/&gt;</t>
+  </si>
+  <si>
+    <t>507754474、512639746</t>
+  </si>
+  <si>
+    <t>熊猫的涩图大师</t>
+  </si>
+  <si>
+    <t>话不多说，熊猫的涩图99%都来自于这位大师之手。</t>
+  </si>
+  <si>
+    <t>214009449</t>
+  </si>
+  <si>
+    <t>五子棋国手</t>
+  </si>
+  <si>
+    <t>2025年2月2日的早上，那是一个让世人难忘的早晨，星海与哇塞，激战了一个早上也难分胜负，最后各自获得了五子棋国手的称号！</t>
+  </si>
+  <si>
+    <t>10977173</t>
+  </si>
+  <si>
+    <t>超级变化形态！</t>
+  </si>
+  <si>
+    <t>重剑，超级变化形态！&lt;br/&gt;
+&lt;img src="https://i.ibb.co/4n84ZLYr/Weixin-Image-20250306095641.png" alt="Weixin-Image-20250306095641" border="0"&gt;</t>
+  </si>
+  <si>
+    <t>15293125</t>
+  </si>
+  <si>
+    <t>我感觉不用管她死活</t>
+  </si>
+  <si>
+    <t>来自于一个运营简经纪人的无敌言论，“我感觉不用管她死活”。&lt;br/&gt;
+&lt;img src="https://i.ibb.co/p6hs84QX/Weixin-Image-20250306100015.png" alt="Weixin-Image-20250306100015" border="0"&gt;</t>
+  </si>
+  <si>
+    <t>群里要谨言慎行！</t>
+  </si>
+  <si>
+    <t>由于群内黄色程度过高，阿雷直接进行一个急停！&lt;br/&gt;
+&lt;img src="https://i.ibb.co/d4mchM4T/Weixin-Image-20250306100516.png" alt="Weixin-Image-20250306100516" border="0"&gt;</t>
+  </si>
+  <si>
+    <t>21743321</t>
+  </si>
+  <si>
+    <t>他是0</t>
+  </si>
+  <si>
+    <t>虽然不了解，但是大受震撼。&lt;br/&gt;
+&lt;img src="https://i.ibb.co/XfJCTfBC/Weixin-Image-20250306100800.png" alt="Weixin-Image-20250306100800" border="0"&gt;</t>
+  </si>
+  <si>
+    <t>243961884</t>
+  </si>
+  <si>
+    <t>DON’T PUSH</t>
+  </si>
+  <si>
+    <t>什么也不说了，DON’T PUSH。历经4小时的终极大战。&lt;br/&gt;
+&lt;img src="https://i.ibb.co/jPwRxLhK/Weixin-Image-20250306105224.png" alt="Weixin-Image-20250306105224" border="0"&gt;</t>
+  </si>
+  <si>
+    <t>507754474、2473359、3546697030437325、12170858、243961884、21743321</t>
+  </si>
+  <si>
+    <t>别来沾边！</t>
+  </si>
+  <si>
+    <t>她真的很恐怖！&lt;br/&gt;
+&lt;img src="https://i.ibb.co/KzmWQR8X/Weixin-Image-20250306105418.png" alt="Weixin-Image-20250306105418" border="0"&gt;</t>
+  </si>
+  <si>
+    <t>东莞的秘书</t>
+  </si>
+  <si>
+    <t>星海说过一句骇人听闻的话，“东莞的秘书我真的都玩穿了”。很恐怖，很恐怖好吧！&lt;br/&gt;
+&lt;img src="https://i.ibb.co/nGDRYfJ/Weixin-Image-20250306105806.png" alt="Weixin-Image-20250306105806" border="0"&gt;</t>
+  </si>
+  <si>
+    <t>2473359</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -1907,9 +2107,6 @@
     <t>https://i1.hdslb.com/bfs/face/bde8df44e3d227c5bcf89342e7ddd46f9c5f0042.jpg</t>
   </si>
   <si>
-    <t>2473359</t>
-  </si>
-  <si>
     <t>星海</t>
   </si>
   <si>
@@ -1940,9 +2137,6 @@
     <t>https://i1.hdslb.com/bfs/face/eff030c0a8482f5775cbd57722264feabfac2723.jpg</t>
   </si>
   <si>
-    <t>15293125</t>
-  </si>
-  <si>
     <t>重剑</t>
   </si>
   <si>
@@ -1964,9 +2158,6 @@
     <t>https://i1.hdslb.com/bfs/face/cd80f3beb177df32bd68ac847f24ea30d8b102b8.jpg</t>
   </si>
   <si>
-    <t>214009449</t>
-  </si>
-  <si>
     <t>布列电</t>
   </si>
   <si>
@@ -2018,9 +2209,6 @@
     <t>https://i0.hdslb.com/bfs/face/9a14118854bf7733441856406a5fe23ba2ae13fc.jpg</t>
   </si>
   <si>
-    <t>21743321</t>
-  </si>
-  <si>
     <t>阿雷</t>
   </si>
   <si>
@@ -2078,9 +2266,6 @@
     <t>https://i1.hdslb.com/bfs/face/61ebd4df86936f7a0bb6202e2f64810bdb52a63a.jpg</t>
   </si>
   <si>
-    <t>10977173</t>
-  </si>
-  <si>
     <t>哇塞</t>
   </si>
   <si>
@@ -2109,9 +2294,6 @@
   </si>
   <si>
     <t>https://i1.hdslb.com/bfs/face/0a9724f7c6225454485ea0ddb6caa35439a14d28.jpg</t>
-  </si>
-  <si>
-    <t>243961884</t>
   </si>
   <si>
     <t>老林</t>
@@ -2247,7 +2429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2257,6 +2439,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2557,7 +2742,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E355"/>
+  <dimension ref="A1:E374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2694,7 +2879,7 @@
       <c r="D9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3179,7 +3364,7 @@
       <c r="D43" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="7" t="s">
         <v>88</v>
       </c>
     </row>
@@ -3728,7 +3913,7 @@
       <c r="D82" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="7" t="s">
         <v>158</v>
       </c>
     </row>
@@ -3955,7 +4140,7 @@
       <c r="D98" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E98" s="7" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4322,7 +4507,7 @@
       <c r="D124" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="E124" s="7" t="s">
         <v>229</v>
       </c>
     </row>
@@ -4843,7 +5028,7 @@
       <c r="D161" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="E161" s="7" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5140,7 +5325,7 @@
       <c r="D182" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E182" s="6" t="s">
+      <c r="E182" s="7" t="s">
         <v>322</v>
       </c>
     </row>
@@ -5521,7 +5706,7 @@
       <c r="D209" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E209" s="6" t="s">
+      <c r="E209" s="7" t="s">
         <v>365</v>
       </c>
     </row>
@@ -5594,7 +5779,7 @@
       <c r="D214" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E214" s="6" t="s">
+      <c r="E214" s="7" t="s">
         <v>373</v>
       </c>
     </row>
@@ -5611,7 +5796,7 @@
       <c r="D215" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E215" s="6" t="s">
+      <c r="E215" s="7" t="s">
         <v>375</v>
       </c>
     </row>
@@ -6048,7 +6233,7 @@
       <c r="D246" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E246" s="6" t="s">
+      <c r="E246" s="7" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6611,7 +6796,7 @@
       <c r="D286" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E286" s="6" t="s">
+      <c r="E286" s="7" t="s">
         <v>483</v>
       </c>
     </row>
@@ -6698,7 +6883,7 @@
       <c r="D292" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E292" s="6" t="s">
+      <c r="E292" s="7" t="s">
         <v>496</v>
       </c>
     </row>
@@ -6841,7 +7026,7 @@
       <c r="D302" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E302" s="6" t="s">
+      <c r="E302" s="7" t="s">
         <v>511</v>
       </c>
     </row>
@@ -6914,7 +7099,7 @@
       <c r="D307" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E307" s="6" t="s">
+      <c r="E307" s="7" t="s">
         <v>520</v>
       </c>
     </row>
@@ -7239,7 +7424,7 @@
       <c r="D330" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E330" s="6" t="s">
+      <c r="E330" s="7" t="s">
         <v>555</v>
       </c>
     </row>
@@ -7298,7 +7483,7 @@
       <c r="D334" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E334" s="6" t="s">
+      <c r="E334" s="7" t="s">
         <v>563</v>
       </c>
     </row>
@@ -7455,7 +7640,7 @@
       <c r="D345" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E345" s="6" t="s">
+      <c r="E345" s="7" t="s">
         <v>579</v>
       </c>
     </row>
@@ -7472,7 +7657,7 @@
       <c r="D346" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E346" s="6" t="s">
+      <c r="E346" s="7" t="s">
         <v>581</v>
       </c>
     </row>
@@ -7489,7 +7674,7 @@
       <c r="D347" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E347" s="6" t="s">
+      <c r="E347" s="7" t="s">
         <v>584</v>
       </c>
     </row>
@@ -7506,7 +7691,7 @@
       <c r="D348" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E348" s="6" t="s">
+      <c r="E348" s="7" t="s">
         <v>586</v>
       </c>
     </row>
@@ -7523,7 +7708,7 @@
       <c r="D349" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E349" s="6" t="s">
+      <c r="E349" s="7" t="s">
         <v>589</v>
       </c>
     </row>
@@ -7540,7 +7725,7 @@
       <c r="D350" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E350" s="6" t="s">
+      <c r="E350" s="7" t="s">
         <v>592</v>
       </c>
     </row>
@@ -7557,7 +7742,7 @@
       <c r="D351" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E351" s="6" t="s">
+      <c r="E351" s="7" t="s">
         <v>595</v>
       </c>
     </row>
@@ -7574,7 +7759,7 @@
       <c r="D352" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E352" s="6" t="s">
+      <c r="E352" s="7" t="s">
         <v>598</v>
       </c>
     </row>
@@ -7591,7 +7776,7 @@
       <c r="D353" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E353" s="6" t="s">
+      <c r="E353" s="7" t="s">
         <v>600</v>
       </c>
     </row>
@@ -7608,7 +7793,7 @@
       <c r="D354" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E354" s="6" t="s">
+      <c r="E354" s="7" t="s">
         <v>603</v>
       </c>
     </row>
@@ -7625,8 +7810,274 @@
       <c r="D355" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E355" s="6" t="s">
+      <c r="E355" s="7" t="s">
         <v>605</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="0" t="s">
+        <v>606</v>
+      </c>
+      <c r="B356" s="0" t="s">
+        <v>607</v>
+      </c>
+      <c r="C356" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D356" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="0" t="s">
+        <v>608</v>
+      </c>
+      <c r="B357" s="0" t="s">
+        <v>609</v>
+      </c>
+      <c r="C357" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D357" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="0" t="s">
+        <v>610</v>
+      </c>
+      <c r="B358" s="0" t="s">
+        <v>611</v>
+      </c>
+      <c r="C358" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D358" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="0" t="s">
+        <v>612</v>
+      </c>
+      <c r="B359" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="C359" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D359" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="0" t="s">
+        <v>614</v>
+      </c>
+      <c r="B360" s="0" t="s">
+        <v>615</v>
+      </c>
+      <c r="C360" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D360" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="0" t="s">
+        <v>616</v>
+      </c>
+      <c r="B361" s="0" t="s">
+        <v>613</v>
+      </c>
+      <c r="C361" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D361" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="0" t="s">
+        <v>617</v>
+      </c>
+      <c r="B362" s="0" t="s">
+        <v>618</v>
+      </c>
+      <c r="C362" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D362" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="0" t="s">
+        <v>619</v>
+      </c>
+      <c r="B363" s="0" t="s">
+        <v>620</v>
+      </c>
+      <c r="C363" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D363" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="0" t="s">
+        <v>621</v>
+      </c>
+      <c r="B364" s="0" t="s">
+        <v>622</v>
+      </c>
+      <c r="C364" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D364" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="0" t="s">
+        <v>623</v>
+      </c>
+      <c r="B365" s="0" t="s">
+        <v>594</v>
+      </c>
+      <c r="C365" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D365" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="0" t="s">
+        <v>624</v>
+      </c>
+      <c r="B366" s="0" t="s">
+        <v>625</v>
+      </c>
+      <c r="C366" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D366" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="0" t="s">
+        <v>626</v>
+      </c>
+      <c r="B367" s="0" t="s">
+        <v>627</v>
+      </c>
+      <c r="C367" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D367" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="0" t="s">
+        <v>628</v>
+      </c>
+      <c r="B368" s="0" t="s">
+        <v>629</v>
+      </c>
+      <c r="C368" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D368" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="0" t="s">
+        <v>630</v>
+      </c>
+      <c r="B369" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C369" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D369" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="0" t="s">
+        <v>631</v>
+      </c>
+      <c r="B370" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="C370" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D370" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="0" t="s">
+        <v>633</v>
+      </c>
+      <c r="B371" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="C371" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D371" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="B372" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="C372" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D372" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="0" t="s">
+        <v>635</v>
+      </c>
+      <c r="B373" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="C373" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D373" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="0" t="s">
+        <v>636</v>
+      </c>
+      <c r="B374" s="0" t="s">
+        <v>637</v>
+      </c>
+      <c r="C374" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D374" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -7670,7 +8121,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7686,86 +8137,196 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>606</v>
+        <v>638</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>607</v>
+        <v>639</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="2" ht="150" customHeight="1">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="2" ht="60" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>609</v>
+        <v>641</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>610</v>
+        <v>642</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="3" ht="150" customHeight="1">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="3" ht="60" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>612</v>
+        <v>644</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="4" ht="150" customHeight="1">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="4" ht="60" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>615</v>
+        <v>647</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>616</v>
+        <v>648</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="5" ht="150" customHeight="1">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="5" ht="60" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>618</v>
+        <v>650</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>619</v>
+        <v>651</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="6" ht="150" customHeight="1"/>
-    <row r="7" ht="150" customHeight="1"/>
-    <row r="8" ht="150" customHeight="1"/>
-    <row r="9" ht="150" customHeight="1"/>
-    <row r="10" ht="150" customHeight="1"/>
-    <row r="11" ht="150" customHeight="1"/>
-    <row r="12" ht="150" customHeight="1"/>
-    <row r="13" ht="150" customHeight="1"/>
-    <row r="14" ht="150" customHeight="1"/>
-    <row r="15" ht="150" customHeight="1"/>
-    <row r="16" ht="150" customHeight="1"/>
-    <row r="17" ht="150" customHeight="1"/>
-    <row r="18" ht="150" customHeight="1"/>
-    <row r="19" ht="150" customHeight="1"/>
-    <row r="20" ht="150" customHeight="1"/>
-    <row r="21" ht="150" customHeight="1"/>
-    <row r="22" ht="150" customHeight="1"/>
-    <row r="23" ht="150" customHeight="1"/>
-    <row r="24" ht="150" customHeight="1"/>
-    <row r="25" ht="150" customHeight="1"/>
-    <row r="26" ht="150" customHeight="1"/>
-    <row r="27" ht="150" customHeight="1"/>
-    <row r="28" ht="150" customHeight="1"/>
-    <row r="29" ht="150" customHeight="1"/>
-    <row r="30" ht="150" customHeight="1"/>
-    <row r="31" ht="150" customHeight="1"/>
-    <row r="32" ht="150" customHeight="1"/>
+        <v>652</v>
+      </c>
+    </row>
+    <row r="6" ht="60" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="7" ht="60" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="8" ht="60" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="9" ht="60" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="11" ht="60" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="14" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="16" ht="60" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="17" ht="60" customHeight="1"/>
+    <row r="18" ht="60" customHeight="1"/>
+    <row r="19" ht="60" customHeight="1"/>
+    <row r="20" ht="60" customHeight="1"/>
+    <row r="21" ht="60" customHeight="1"/>
+    <row r="22" ht="60" customHeight="1"/>
+    <row r="23" ht="60" customHeight="1"/>
+    <row r="24" ht="60" customHeight="1"/>
+    <row r="25" ht="60" customHeight="1"/>
+    <row r="26" ht="60" customHeight="1"/>
+    <row r="27" ht="60" customHeight="1"/>
+    <row r="28" ht="60" customHeight="1"/>
+    <row r="29" ht="60" customHeight="1"/>
+    <row r="30" ht="60" customHeight="1"/>
+    <row r="31" ht="60" customHeight="1"/>
+    <row r="32" ht="60" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -7777,7 +8338,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7794,382 +8355,385 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>621</v>
+        <v>683</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>622</v>
+        <v>684</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>623</v>
+        <v>685</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>624</v>
+        <v>686</v>
       </c>
       <c r="E1" s="0" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>625</v>
+        <v>687</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>626</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>627</v>
+        <v>688</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>628</v>
+        <v>682</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>629</v>
+        <v>690</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>631</v>
+        <v>691</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>692</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>611</v>
+        <v>643</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>632</v>
+        <v>693</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>634</v>
+        <v>694</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>635</v>
+        <v>696</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>636</v>
+        <v>697</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>638</v>
+        <v>698</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>640</v>
+        <v>700</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>642</v>
+        <v>701</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>643</v>
+        <v>703</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>644</v>
+        <v>704</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>645</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>646</v>
+        <v>705</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>706</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>647</v>
+        <v>660</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>648</v>
+        <v>707</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>649</v>
+        <v>707</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>650</v>
+        <v>709</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>651</v>
+        <v>710</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>652</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>653</v>
+        <v>711</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>712</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>654</v>
+        <v>713</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>655</v>
+        <v>714</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>657</v>
+        <v>715</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>658</v>
+        <v>717</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>659</v>
+        <v>718</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>661</v>
+        <v>719</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>662</v>
+        <v>721</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>663</v>
+        <v>722</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>664</v>
+        <v>722</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>666</v>
+        <v>724</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>667</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>668</v>
+        <v>725</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>669</v>
+        <v>727</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>670</v>
+        <v>728</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>671</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>672</v>
+        <v>729</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>673</v>
+        <v>731</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>674</v>
+        <v>732</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>675</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>676</v>
+        <v>733</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>677</v>
+        <v>735</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>678</v>
+        <v>736</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>679</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>680</v>
+        <v>737</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>681</v>
+        <v>739</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>682</v>
+        <v>740</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>683</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>684</v>
+        <v>741</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>685</v>
+        <v>663</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>686</v>
+        <v>743</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>687</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>688</v>
+        <v>744</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>689</v>
+        <v>746</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>690</v>
+        <v>747</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>691</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>692</v>
+        <v>748</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>614</v>
+        <v>646</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>693</v>
+        <v>750</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>694</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>695</v>
+        <v>751</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>696</v>
+        <v>674</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>697</v>
+        <v>753</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>698</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>699</v>
+        <v>754</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>700</v>
+        <v>756</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>701</v>
+        <v>757</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>703</v>
+        <v>758</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>704</v>
+        <v>760</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>705</v>
+        <v>761</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>706</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>707</v>
+        <v>762</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>708</v>
+        <v>764</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>709</v>
+        <v>765</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>711</v>
+        <v>766</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>712</v>
+        <v>768</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>713</v>
+        <v>769</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>715</v>
+        <v>770</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>716</v>
+        <v>772</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>717</v>
+        <v>773</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>718</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>719</v>
+        <v>774</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>720</v>
+        <v>776</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>721</v>
+        <v>777</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>722</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>723</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="1" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/tools/input.xlsx
+++ b/tools/input.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="歌单" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="垂名青史" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="粉丝" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="网站" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="811">
   <si>
     <t>歌名</t>
   </si>
@@ -1935,6 +1936,12 @@
   </si>
   <si>
     <t>SING女团</t>
+  </si>
+  <si>
+    <t>坐上火车去拉萨</t>
+  </si>
+  <si>
+    <t>徐千雅</t>
   </si>
   <si>
     <t>标题</t>
@@ -2086,6 +2093,76 @@
     <t>2473359</t>
   </si>
   <si>
+    <t>鱼丸和汉堡的爱恨情仇</t>
+  </si>
+  <si>
+    <t>鱼丸老板 和 汉堡改改 的爱恨情仇。&lt;br/&gt;
+&lt;img src="https://i.ibb.co/xVvgm4N/Weixin-Image-20250306140717.png" alt="Weixin-Image-20250306140717" border="0"&gt;
+&lt;img src="https://i.ibb.co/fdDRCHVw/Weixin-Image-20250306140714.png" alt="Weixin-Image-20250306140714" border="0"&gt;</t>
+  </si>
+  <si>
+    <t>512639746、507754474</t>
+  </si>
+  <si>
+    <t>鱼丸老板的情人节活动</t>
+  </si>
+  <si>
+    <t>鱼丸在洗脚城，提起了裤子，说到：“我结束了”。&lt;br/&gt;
+&lt;img src="https://i.ibb.co/1fqMfTTK/Weixin-Image-20250306140851.png" alt="Weixin-Image-20250306140851" border="0"&gt;</t>
+  </si>
+  <si>
+    <t>汉堡改改的炫光五彩大追追</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://i.ibb.co/KpbDQw5z/Weixin-Image-20250306141026.png" alt="Weixin-Image-20250306141026" border="0"&gt;</t>
+  </si>
+  <si>
+    <t>512639746</t>
+  </si>
+  <si>
+    <t>这个世界被蛤蟆占领了</t>
+  </si>
+  <si>
+    <t>一觉醒来，发现这个世界疯了。&lt;br/&gt;
+&lt;img src="https://i.ibb.co/9kyBVynM/Weixin-Image-20250306141114.png" alt="Weixin-Image-20250306141114" border="0"&gt;</t>
+  </si>
+  <si>
+    <t>希希姐姐</t>
+  </si>
+  <si>
+    <t>直播间的秋名山车神！&lt;br/&gt;
+&lt;img src="https://i.ibb.co/FQ4cCXB/Weixin-Image-20250306141800.png" alt="Weixin-Image-20250306141800" border="0"&gt;
+&lt;img src="https://i.ibb.co/sp3m2hDg/Weixin-Image-20250306141757.png" alt="Weixin-Image-20250306141757" border="0"&gt;</t>
+  </si>
+  <si>
+    <t>31706255</t>
+  </si>
+  <si>
+    <t>五万桑</t>
+  </si>
+  <si>
+    <t>五万师傅！性学PhD。什么爱情相关的技能都会！</t>
+  </si>
+  <si>
+    <t>7191759</t>
+  </si>
+  <si>
+    <t>黄海自爆辣</t>
+  </si>
+  <si>
+    <t>星海赛季被加强了，变成了黄海，我勒个豆啊！&lt;br/&gt;
+&lt;img src="https://i.ibb.co/S7tM3RWG/Weixin-Image-20250306142857.png" alt="Weixin-Image-20250306142857" border="0"&gt;
+&lt;img src="https://i.ibb.co/GQ4cswSY/Weixin-Image-20250306142852.png" alt="Weixin-Image-20250306142852" border="0"&gt;
+&lt;img src="https://i.ibb.co/pB3cxHYw/Weixin-Image-20250306142848.png" alt="Weixin-Image-20250306142848" border="0"&gt;
+&lt;img src="https://i.ibb.co/4RyYwhDn/Weixin-Image-20250306142843.png" alt="Weixin-Image-20250306142843" border="0"&gt;</t>
+  </si>
+  <si>
+    <t>黄豆豆的藏头露尾诗</t>
+  </si>
+  <si>
+    <t>&lt;img src="https://i.ibb.co/X0b1Lm1/Weixin-Image-20250306143256.jpg" alt="Weixin-Image-20250306143256" border="0"&gt;</t>
+  </si>
+  <si>
     <t>id</t>
   </si>
   <si>
@@ -2146,9 +2223,6 @@
     <t>https://i1.hdslb.com/bfs/face/b35eb9d56fdb9aa960f4e966671e656e87cc9a2f.jpg</t>
   </si>
   <si>
-    <t>512639746</t>
-  </si>
-  <si>
     <t>汉堡</t>
   </si>
   <si>
@@ -2375,6 +2449,36 @@
   </si>
   <si>
     <t>https://i0.hdslb.com/bfs/face/860201b53d0c3c850a267853ba2981dd779ed9f9.jpg</t>
+  </si>
+  <si>
+    <t>五万</t>
+  </si>
+  <si>
+    <t>第一步先赚五万块</t>
+  </si>
+  <si>
+    <t>https://i0.hdslb.com/bfs/face/3c980a891e37eb8de537c95e3243e60eb875765f.jpg</t>
+  </si>
+  <si>
+    <t>希希猫条</t>
+  </si>
+  <si>
+    <t>https://i2.hdslb.com/bfs/face/f2632e023a27dff817fed8ba2692002e65c67efd.jpg</t>
+  </si>
+  <si>
+    <t>21128569</t>
+  </si>
+  <si>
+    <t>大大胖</t>
+  </si>
+  <si>
+    <t>闲昼听曲幽夜观澜</t>
+  </si>
+  <si>
+    <t>https://i1.hdslb.com/bfs/face/bdcc3a94799368cbaec219f2a0762c8b4601e222.webp</t>
+  </si>
+  <si>
+    <t>https://api.vc.bilibili.com/account/v1/user/cards?uids=2473359</t>
   </si>
 </sst>
 </file>
@@ -2742,7 +2846,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E374"/>
+  <dimension ref="A1:E375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8078,6 +8182,20 @@
       </c>
       <c r="D374" s="0" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="0" t="s">
+        <v>638</v>
+      </c>
+      <c r="B375" s="0" t="s">
+        <v>639</v>
+      </c>
+      <c r="C375" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D375" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -8121,7 +8239,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8137,188 +8255,268 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="3" ht="60" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="5" ht="60" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6" ht="60" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7" ht="60" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="17" ht="60" customHeight="1"/>
-    <row r="18" ht="60" customHeight="1"/>
-    <row r="19" ht="60" customHeight="1"/>
-    <row r="20" ht="60" customHeight="1"/>
-    <row r="21" ht="60" customHeight="1"/>
-    <row r="22" ht="60" customHeight="1"/>
-    <row r="23" ht="60" customHeight="1"/>
-    <row r="24" ht="60" customHeight="1"/>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="18" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="19" ht="60" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="20" ht="60" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="21" ht="60" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="22" ht="60" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>699</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="23" ht="60" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>701</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>702</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="24" ht="60" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>704</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
     <row r="25" ht="60" customHeight="1"/>
     <row r="26" ht="60" customHeight="1"/>
     <row r="27" ht="60" customHeight="1"/>
@@ -8338,7 +8536,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8355,385 +8553,424 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>683</v>
+        <v>705</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>684</v>
+        <v>706</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>685</v>
+        <v>707</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>686</v>
+        <v>708</v>
       </c>
       <c r="E1" s="0" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>687</v>
+        <v>709</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>688</v>
+        <v>710</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>689</v>
+        <v>711</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>690</v>
+        <v>712</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>691</v>
+        <v>713</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>692</v>
+        <v>714</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>693</v>
+        <v>715</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>694</v>
+        <v>716</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>695</v>
+        <v>717</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>696</v>
+        <v>718</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>697</v>
+        <v>719</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>698</v>
+        <v>720</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>699</v>
+        <v>721</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>700</v>
+        <v>722</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>701</v>
+        <v>723</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>702</v>
+        <v>724</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>704</v>
+        <v>725</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>705</v>
+        <v>726</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>706</v>
+        <v>727</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>707</v>
+        <v>728</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>707</v>
+        <v>728</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>708</v>
+        <v>729</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>709</v>
+        <v>730</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>710</v>
+        <v>731</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>711</v>
+        <v>732</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>712</v>
+        <v>733</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>713</v>
+        <v>734</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>714</v>
+        <v>735</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>715</v>
+        <v>736</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>716</v>
+        <v>737</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>717</v>
+        <v>738</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>718</v>
+        <v>739</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>719</v>
+        <v>740</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>720</v>
+        <v>741</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>721</v>
+        <v>742</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>722</v>
+        <v>743</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>723</v>
+        <v>744</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>724</v>
+        <v>745</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>725</v>
+        <v>746</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>726</v>
+        <v>747</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>728</v>
+        <v>749</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>729</v>
+        <v>750</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>730</v>
+        <v>751</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>731</v>
+        <v>752</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>732</v>
+        <v>753</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>733</v>
+        <v>754</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>734</v>
+        <v>755</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>735</v>
+        <v>756</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>736</v>
+        <v>757</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>737</v>
+        <v>758</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>738</v>
+        <v>759</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>739</v>
+        <v>760</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>740</v>
+        <v>761</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>741</v>
+        <v>762</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>742</v>
+        <v>763</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>743</v>
+        <v>764</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>744</v>
+        <v>765</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>745</v>
+        <v>766</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>746</v>
+        <v>767</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>747</v>
+        <v>768</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>748</v>
+        <v>769</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>749</v>
+        <v>770</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>750</v>
+        <v>771</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>751</v>
+        <v>772</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>752</v>
+        <v>773</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>753</v>
+        <v>774</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>754</v>
+        <v>775</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>755</v>
+        <v>776</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>756</v>
+        <v>777</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>757</v>
+        <v>778</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>758</v>
+        <v>779</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>759</v>
+        <v>780</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>760</v>
+        <v>781</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>761</v>
+        <v>782</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>762</v>
+        <v>783</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>763</v>
+        <v>784</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>764</v>
+        <v>785</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>765</v>
+        <v>786</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>766</v>
+        <v>787</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>767</v>
+        <v>788</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>768</v>
+        <v>789</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>769</v>
+        <v>790</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>771</v>
+        <v>792</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>772</v>
+        <v>793</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>773</v>
+        <v>794</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>774</v>
+        <v>795</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>775</v>
+        <v>796</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>777</v>
+        <v>798</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>778</v>
+        <v>799</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>779</v>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="1" t="n"/>
+      <c r="A29" s="1" t="s">
+        <v>697</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>809</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8763,6 +9000,36 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D25" display="https://i2.hdslb.com/bfs/face/697ba4721106564a9e7327cd4abc0e01d9d04d88.jpg" r:id="rId24"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D26" display="https://i1.hdslb.com/bfs/face/980e0576ff75cacd1abeaa280282b671d053f078.jpg" r:id="rId25"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D27" display="https://i0.hdslb.com/bfs/face/860201b53d0c3c850a267853ba2981dd779ed9f9.jpg" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D28" display="https://i0.hdslb.com/bfs/face/3c980a891e37eb8de537c95e3243e60eb875765f.jpg" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D29" display="https://i2.hdslb.com/bfs/face/f2632e023a27dff817fed8ba2692002e65c67efd.jpg" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="D30" display="https://i1.hdslb.com/bfs/face/bdcc3a94799368cbaec219f2a0762c8b4601e222.webp" r:id="rId29"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.544" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="7" t="s">
+        <v>810</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A1" display="https://api.vc.bilibili.com/account/v1/user/cards?uids=2473359" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tools/input.xlsx
+++ b/tools/input.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="830">
   <si>
     <t>歌名</t>
   </si>
@@ -1942,6 +1942,51 @@
   </si>
   <si>
     <t>徐千雅</t>
+  </si>
+  <si>
+    <t>当</t>
+  </si>
+  <si>
+    <t>动力火车</t>
+  </si>
+  <si>
+    <t>绿旋风</t>
+  </si>
+  <si>
+    <t>月亮之上</t>
+  </si>
+  <si>
+    <t>等爱的玫瑰</t>
+  </si>
+  <si>
+    <t>我从草原来</t>
+  </si>
+  <si>
+    <t>奢香夫人</t>
+  </si>
+  <si>
+    <t>溜溜的情歌</t>
+  </si>
+  <si>
+    <t>郎的诱惑</t>
+  </si>
+  <si>
+    <t>荷塘月色</t>
+  </si>
+  <si>
+    <t>自由飞翔</t>
+  </si>
+  <si>
+    <t>最炫民族风</t>
+  </si>
+  <si>
+    <t>小苹果</t>
+  </si>
+  <si>
+    <t>筷子兄弟</t>
+  </si>
+  <si>
+    <t>杜十娘</t>
   </si>
   <si>
     <t>标题</t>
@@ -2478,7 +2523,19 @@
     <t>https://i1.hdslb.com/bfs/face/bdcc3a94799368cbaec219f2a0762c8b4601e222.webp</t>
   </si>
   <si>
+    <t>更新B站</t>
+  </si>
+  <si>
     <t>https://api.vc.bilibili.com/account/v1/user/cards?uids=2473359</t>
+  </si>
+  <si>
+    <t>试歌</t>
+  </si>
+  <si>
+    <t>康定情歌</t>
+  </si>
+  <si>
+    <t>心驰神往</t>
   </si>
 </sst>
 </file>
@@ -2486,7 +2543,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2498,6 +2555,11 @@
       <name val="Arial"/>
       <color rgb="FF18191C"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -2533,7 +2595,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -2548,7 +2610,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2846,7 +2913,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E375"/>
+  <dimension ref="A1:I389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2983,7 +3050,7 @@
       <c r="D9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3468,7 +3535,7 @@
       <c r="D43" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="7" t="s">
+      <c r="E43" s="10" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4017,7 +4084,7 @@
       <c r="D82" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E82" s="10" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4244,7 +4311,7 @@
       <c r="D98" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E98" s="7" t="s">
+      <c r="E98" s="10" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4611,7 +4678,7 @@
       <c r="D124" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="7" t="s">
+      <c r="E124" s="10" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5132,7 +5199,7 @@
       <c r="D161" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E161" s="7" t="s">
+      <c r="E161" s="10" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5429,7 +5496,7 @@
       <c r="D182" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E182" s="7" t="s">
+      <c r="E182" s="10" t="s">
         <v>322</v>
       </c>
     </row>
@@ -5810,7 +5877,7 @@
       <c r="D209" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E209" s="7" t="s">
+      <c r="E209" s="10" t="s">
         <v>365</v>
       </c>
     </row>
@@ -5883,7 +5950,7 @@
       <c r="D214" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E214" s="7" t="s">
+      <c r="E214" s="10" t="s">
         <v>373</v>
       </c>
     </row>
@@ -5900,7 +5967,7 @@
       <c r="D215" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E215" s="7" t="s">
+      <c r="E215" s="10" t="s">
         <v>375</v>
       </c>
     </row>
@@ -6337,7 +6404,7 @@
       <c r="D246" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E246" s="7" t="s">
+      <c r="E246" s="10" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6900,7 +6967,7 @@
       <c r="D286" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E286" s="7" t="s">
+      <c r="E286" s="10" t="s">
         <v>483</v>
       </c>
     </row>
@@ -6987,7 +7054,7 @@
       <c r="D292" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E292" s="7" t="s">
+      <c r="E292" s="10" t="s">
         <v>496</v>
       </c>
     </row>
@@ -7130,7 +7197,7 @@
       <c r="D302" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E302" s="7" t="s">
+      <c r="E302" s="10" t="s">
         <v>511</v>
       </c>
     </row>
@@ -7203,7 +7270,7 @@
       <c r="D307" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E307" s="7" t="s">
+      <c r="E307" s="10" t="s">
         <v>520</v>
       </c>
     </row>
@@ -7528,7 +7595,7 @@
       <c r="D330" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E330" s="7" t="s">
+      <c r="E330" s="10" t="s">
         <v>555</v>
       </c>
     </row>
@@ -7587,7 +7654,7 @@
       <c r="D334" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E334" s="7" t="s">
+      <c r="E334" s="10" t="s">
         <v>563</v>
       </c>
     </row>
@@ -7744,7 +7811,7 @@
       <c r="D345" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E345" s="7" t="s">
+      <c r="E345" s="10" t="s">
         <v>579</v>
       </c>
     </row>
@@ -7761,7 +7828,7 @@
       <c r="D346" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E346" s="7" t="s">
+      <c r="E346" s="10" t="s">
         <v>581</v>
       </c>
     </row>
@@ -7778,7 +7845,7 @@
       <c r="D347" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E347" s="7" t="s">
+      <c r="E347" s="10" t="s">
         <v>584</v>
       </c>
     </row>
@@ -7795,7 +7862,7 @@
       <c r="D348" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E348" s="7" t="s">
+      <c r="E348" s="10" t="s">
         <v>586</v>
       </c>
     </row>
@@ -7812,7 +7879,7 @@
       <c r="D349" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E349" s="7" t="s">
+      <c r="E349" s="10" t="s">
         <v>589</v>
       </c>
     </row>
@@ -7829,7 +7896,7 @@
       <c r="D350" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E350" s="7" t="s">
+      <c r="E350" s="10" t="s">
         <v>592</v>
       </c>
     </row>
@@ -7846,7 +7913,7 @@
       <c r="D351" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E351" s="7" t="s">
+      <c r="E351" s="10" t="s">
         <v>595</v>
       </c>
     </row>
@@ -7863,7 +7930,7 @@
       <c r="D352" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E352" s="7" t="s">
+      <c r="E352" s="10" t="s">
         <v>598</v>
       </c>
     </row>
@@ -7880,7 +7947,7 @@
       <c r="D353" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E353" s="7" t="s">
+      <c r="E353" s="10" t="s">
         <v>600</v>
       </c>
     </row>
@@ -7897,7 +7964,7 @@
       <c r="D354" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E354" s="7" t="s">
+      <c r="E354" s="10" t="s">
         <v>603</v>
       </c>
     </row>
@@ -7914,7 +7981,7 @@
       <c r="D355" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E355" s="7" t="s">
+      <c r="E355" s="10" t="s">
         <v>605</v>
       </c>
     </row>
@@ -8127,6 +8194,7 @@
       <c r="D370" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="I370" s="9" t="n"/>
     </row>
     <row r="371">
       <c r="A371" s="0" t="s">
@@ -8141,6 +8209,7 @@
       <c r="D371" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="I371" s="0" t="n"/>
     </row>
     <row r="372">
       <c r="A372" s="0" t="s">
@@ -8155,6 +8224,7 @@
       <c r="D372" s="0" t="s">
         <v>26</v>
       </c>
+      <c r="I372" s="0" t="n"/>
     </row>
     <row r="373">
       <c r="A373" s="0" t="s">
@@ -8195,6 +8265,202 @@
         <v>7</v>
       </c>
       <c r="D375" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="0" t="s">
+        <v>640</v>
+      </c>
+      <c r="B376" s="0" t="s">
+        <v>641</v>
+      </c>
+      <c r="C376" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D376" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="0" t="s">
+        <v>642</v>
+      </c>
+      <c r="B377" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C377" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D377" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="0" t="s">
+        <v>643</v>
+      </c>
+      <c r="B378" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C378" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D378" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="0" t="s">
+        <v>644</v>
+      </c>
+      <c r="B379" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C379" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D379" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="0" t="s">
+        <v>386</v>
+      </c>
+      <c r="B380" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C380" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D380" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="0" t="s">
+        <v>645</v>
+      </c>
+      <c r="B381" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C381" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D381" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="0" t="s">
+        <v>646</v>
+      </c>
+      <c r="B382" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C382" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D382" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="B383" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C383" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D383" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="0" t="s">
+        <v>648</v>
+      </c>
+      <c r="B384" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C384" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D384" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="0" t="s">
+        <v>649</v>
+      </c>
+      <c r="B385" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C385" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D385" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="0" t="s">
+        <v>650</v>
+      </c>
+      <c r="B386" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C386" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D386" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="0" t="s">
+        <v>651</v>
+      </c>
+      <c r="B387" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C387" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D387" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="0" t="s">
+        <v>652</v>
+      </c>
+      <c r="B388" s="0" t="s">
+        <v>653</v>
+      </c>
+      <c r="C388" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D388" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="0" t="s">
+        <v>654</v>
+      </c>
+      <c r="B389" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="C389" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D389" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8255,266 +8521,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>640</v>
+        <v>655</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>642</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>643</v>
+        <v>658</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>644</v>
+        <v>659</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
     </row>
     <row r="3" ht="60" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>646</v>
+        <v>661</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>647</v>
+        <v>662</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>649</v>
+        <v>664</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>650</v>
+        <v>665</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
     </row>
     <row r="5" ht="60" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>652</v>
+        <v>667</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>653</v>
+        <v>668</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6" ht="60" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>655</v>
+        <v>670</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>656</v>
+        <v>671</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
     </row>
     <row r="7" ht="60" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>657</v>
+        <v>672</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>658</v>
+        <v>673</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>661</v>
+        <v>676</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>663</v>
+        <v>678</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>664</v>
+        <v>679</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>667</v>
+        <v>682</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>669</v>
+        <v>684</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>671</v>
+        <v>686</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>677</v>
+        <v>692</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>678</v>
+        <v>693</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>679</v>
+        <v>694</v>
       </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>680</v>
+        <v>695</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>681</v>
+        <v>696</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>682</v>
+        <v>697</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>683</v>
+        <v>698</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>688</v>
+        <v>703</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>689</v>
+        <v>704</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>690</v>
+        <v>705</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>691</v>
+        <v>706</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>693</v>
+        <v>708</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>694</v>
+        <v>709</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
     </row>
     <row r="21" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>696</v>
+        <v>711</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
     </row>
     <row r="22" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>698</v>
+        <v>713</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
     </row>
     <row r="23" ht="60" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>701</v>
+        <v>716</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>702</v>
+        <v>717</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
     </row>
     <row r="24" ht="60" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>703</v>
+        <v>718</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>704</v>
+        <v>719</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
     </row>
     <row r="25" ht="60" customHeight="1"/>
@@ -8553,423 +8819,423 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>705</v>
+        <v>720</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>706</v>
+        <v>721</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>707</v>
+        <v>722</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>708</v>
+        <v>723</v>
       </c>
       <c r="E1" s="0" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>654</v>
+        <v>669</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>709</v>
+        <v>724</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>710</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>711</v>
+        <v>725</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>684</v>
+        <v>699</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>712</v>
+        <v>727</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>713</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>714</v>
+        <v>728</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>645</v>
+        <v>660</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>715</v>
+        <v>730</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>716</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>717</v>
+        <v>731</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>720</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>721</v>
+        <v>735</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>668</v>
+        <v>683</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>722</v>
+        <v>737</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>723</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>724</v>
+        <v>738</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>692</v>
+        <v>707</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>727</v>
+        <v>741</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>662</v>
+        <v>677</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>729</v>
+        <v>743</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>731</v>
+        <v>746</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>733</v>
+        <v>747</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>734</v>
+        <v>749</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>735</v>
+        <v>750</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>736</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>737</v>
+        <v>751</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>738</v>
+        <v>753</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>739</v>
+        <v>754</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>740</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>741</v>
+        <v>755</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>742</v>
+        <v>757</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>743</v>
+        <v>758</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>744</v>
+        <v>758</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>745</v>
+        <v>760</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>747</v>
+        <v>761</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>748</v>
+        <v>763</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>749</v>
+        <v>764</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>751</v>
+        <v>765</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>752</v>
+        <v>767</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>753</v>
+        <v>768</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>754</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>755</v>
+        <v>769</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>756</v>
+        <v>771</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>757</v>
+        <v>772</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>759</v>
+        <v>773</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>760</v>
+        <v>775</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>761</v>
+        <v>776</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>763</v>
+        <v>777</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>764</v>
+        <v>779</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>766</v>
+        <v>780</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>770</v>
+        <v>784</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>648</v>
+        <v>663</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>771</v>
+        <v>786</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>773</v>
+        <v>787</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>676</v>
+        <v>691</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>774</v>
+        <v>789</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>776</v>
+        <v>790</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>777</v>
+        <v>792</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>778</v>
+        <v>793</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>780</v>
+        <v>794</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>781</v>
+        <v>796</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>782</v>
+        <v>797</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>784</v>
+        <v>798</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>785</v>
+        <v>800</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>786</v>
+        <v>801</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>788</v>
+        <v>802</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>789</v>
+        <v>804</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>790</v>
+        <v>805</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>792</v>
+        <v>806</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>793</v>
+        <v>808</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>794</v>
+        <v>809</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>796</v>
+        <v>810</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>797</v>
+        <v>812</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>799</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>800</v>
+        <v>814</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>700</v>
+        <v>715</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>801</v>
+        <v>816</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>803</v>
+        <v>817</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>818</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>697</v>
+        <v>712</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>695</v>
+        <v>710</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>805</v>
+        <v>819</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>806</v>
+        <v>821</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>807</v>
+        <v>822</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>809</v>
+        <v>823</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>824</v>
       </c>
     </row>
   </sheetData>
@@ -9014,7 +9280,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9023,13 +9289,33 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="14.544" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="s">
-        <v>810</v>
+      <c r="A1" s="0" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="10" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="9" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>829</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A1" display="https://api.vc.bilibili.com/account/v1/user/cards?uids=2473359" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="A2" display="https://api.vc.bilibili.com/account/v1/user/cards?uids=2473359" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tools/input.xlsx
+++ b/tools/input.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="833">
   <si>
     <t>歌名</t>
   </si>
@@ -1987,6 +1987,21 @@
   </si>
   <si>
     <t>杜十娘</t>
+  </si>
+  <si>
+    <t>康定情歌</t>
+  </si>
+  <si>
+    <t>在夜里跳舞</t>
+  </si>
+  <si>
+    <t>骁</t>
+  </si>
+  <si>
+    <t>井胧、井迪儿</t>
+  </si>
+  <si>
+    <t>光亮</t>
   </si>
   <si>
     <t>标题</t>
@@ -2530,12 +2545,6 @@
   </si>
   <si>
     <t>试歌</t>
-  </si>
-  <si>
-    <t>康定情歌</t>
-  </si>
-  <si>
-    <t>心驰神往</t>
   </si>
 </sst>
 </file>
@@ -2595,25 +2604,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -2913,7 +2920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I389"/>
+  <dimension ref="A1:I393"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3050,7 +3057,7 @@
       <c r="D9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3535,7 +3542,7 @@
       <c r="D43" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E43" s="8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4084,7 +4091,7 @@
       <c r="D82" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="10" t="s">
+      <c r="E82" s="8" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4311,7 +4318,7 @@
       <c r="D98" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E98" s="10" t="s">
+      <c r="E98" s="8" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4678,7 +4685,7 @@
       <c r="D124" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="10" t="s">
+      <c r="E124" s="8" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5199,7 +5206,7 @@
       <c r="D161" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E161" s="10" t="s">
+      <c r="E161" s="8" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5496,7 +5503,7 @@
       <c r="D182" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E182" s="10" t="s">
+      <c r="E182" s="8" t="s">
         <v>322</v>
       </c>
     </row>
@@ -5877,7 +5884,7 @@
       <c r="D209" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E209" s="10" t="s">
+      <c r="E209" s="8" t="s">
         <v>365</v>
       </c>
     </row>
@@ -5950,7 +5957,7 @@
       <c r="D214" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E214" s="10" t="s">
+      <c r="E214" s="8" t="s">
         <v>373</v>
       </c>
     </row>
@@ -5967,7 +5974,7 @@
       <c r="D215" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E215" s="10" t="s">
+      <c r="E215" s="8" t="s">
         <v>375</v>
       </c>
     </row>
@@ -6404,7 +6411,7 @@
       <c r="D246" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E246" s="10" t="s">
+      <c r="E246" s="8" t="s">
         <v>420</v>
       </c>
     </row>
@@ -6967,7 +6974,7 @@
       <c r="D286" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E286" s="10" t="s">
+      <c r="E286" s="8" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7054,7 +7061,7 @@
       <c r="D292" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E292" s="10" t="s">
+      <c r="E292" s="8" t="s">
         <v>496</v>
       </c>
     </row>
@@ -7197,7 +7204,7 @@
       <c r="D302" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E302" s="10" t="s">
+      <c r="E302" s="8" t="s">
         <v>511</v>
       </c>
     </row>
@@ -7270,7 +7277,7 @@
       <c r="D307" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E307" s="10" t="s">
+      <c r="E307" s="8" t="s">
         <v>520</v>
       </c>
     </row>
@@ -7595,7 +7602,7 @@
       <c r="D330" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E330" s="10" t="s">
+      <c r="E330" s="8" t="s">
         <v>555</v>
       </c>
     </row>
@@ -7654,7 +7661,7 @@
       <c r="D334" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E334" s="10" t="s">
+      <c r="E334" s="8" t="s">
         <v>563</v>
       </c>
     </row>
@@ -7811,7 +7818,7 @@
       <c r="D345" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E345" s="10" t="s">
+      <c r="E345" s="8" t="s">
         <v>579</v>
       </c>
     </row>
@@ -7828,7 +7835,7 @@
       <c r="D346" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E346" s="10" t="s">
+      <c r="E346" s="8" t="s">
         <v>581</v>
       </c>
     </row>
@@ -7845,7 +7852,7 @@
       <c r="D347" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E347" s="10" t="s">
+      <c r="E347" s="8" t="s">
         <v>584</v>
       </c>
     </row>
@@ -7862,7 +7869,7 @@
       <c r="D348" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E348" s="10" t="s">
+      <c r="E348" s="8" t="s">
         <v>586</v>
       </c>
     </row>
@@ -7879,7 +7886,7 @@
       <c r="D349" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E349" s="10" t="s">
+      <c r="E349" s="8" t="s">
         <v>589</v>
       </c>
     </row>
@@ -7896,7 +7903,7 @@
       <c r="D350" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E350" s="10" t="s">
+      <c r="E350" s="8" t="s">
         <v>592</v>
       </c>
     </row>
@@ -7913,7 +7920,7 @@
       <c r="D351" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E351" s="10" t="s">
+      <c r="E351" s="8" t="s">
         <v>595</v>
       </c>
     </row>
@@ -7930,7 +7937,7 @@
       <c r="D352" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E352" s="10" t="s">
+      <c r="E352" s="8" t="s">
         <v>598</v>
       </c>
     </row>
@@ -7947,7 +7954,7 @@
       <c r="D353" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E353" s="10" t="s">
+      <c r="E353" s="8" t="s">
         <v>600</v>
       </c>
     </row>
@@ -7964,7 +7971,7 @@
       <c r="D354" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E354" s="10" t="s">
+      <c r="E354" s="8" t="s">
         <v>603</v>
       </c>
     </row>
@@ -7981,7 +7988,7 @@
       <c r="D355" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E355" s="10" t="s">
+      <c r="E355" s="8" t="s">
         <v>605</v>
       </c>
     </row>
@@ -8194,7 +8201,7 @@
       <c r="D370" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="I370" s="9" t="n"/>
+      <c r="I370" s="3" t="n"/>
     </row>
     <row r="371">
       <c r="A371" s="0" t="s">
@@ -8461,6 +8468,62 @@
         <v>7</v>
       </c>
       <c r="D389" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="B390" s="0" t="s">
+        <v>546</v>
+      </c>
+      <c r="C390" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D390" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="0" t="s">
+        <v>656</v>
+      </c>
+      <c r="B391" s="0" t="s">
+        <v>430</v>
+      </c>
+      <c r="C391" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D391" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="0" t="s">
+        <v>657</v>
+      </c>
+      <c r="B392" s="0" t="s">
+        <v>658</v>
+      </c>
+      <c r="C392" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D392" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="0" t="s">
+        <v>659</v>
+      </c>
+      <c r="B393" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C393" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D393" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8521,266 +8584,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>658</v>
+        <v>663</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
     </row>
     <row r="3" ht="60" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="5" ht="60" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="6" ht="60" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="7" ht="60" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
     </row>
     <row r="21" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
     </row>
     <row r="22" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
     </row>
     <row r="23" ht="60" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="24" ht="60" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
     </row>
     <row r="25" ht="60" customHeight="1"/>
@@ -8819,423 +8882,423 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="E1" s="0" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>725</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>726</v>
+        <v>730</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>728</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>729</v>
+        <v>733</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>732</v>
+        <v>736</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>735</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>736</v>
+        <v>740</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>738</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>739</v>
+        <v>743</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>742</v>
+        <v>746</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>744</v>
+        <v>748</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>747</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>748</v>
+        <v>752</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>752</v>
+        <v>756</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>756</v>
+        <v>760</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>759</v>
+        <v>763</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>762</v>
+        <v>766</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>766</v>
+        <v>770</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>770</v>
+        <v>774</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>774</v>
+        <v>778</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>778</v>
+        <v>782</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>781</v>
+        <v>785</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>785</v>
+        <v>789</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>788</v>
+        <v>792</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>791</v>
+        <v>795</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>795</v>
+        <v>799</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>799</v>
+        <v>803</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>803</v>
+        <v>807</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>807</v>
+        <v>811</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>811</v>
+        <v>815</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>813</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>815</v>
+        <v>818</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>817</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>818</v>
+        <v>822</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>820</v>
+        <v>824</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>825</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>824</v>
+        <v>828</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>829</v>
       </c>
     </row>
   </sheetData>
@@ -9280,7 +9343,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9290,28 +9353,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="s">
-        <v>826</v>
+      <c r="A2" s="8" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>828</v>
-      </c>
+      <c r="A5" s="3" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>829</v>
-      </c>
+      <c r="A6" s="0" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/tools/input.xlsx
+++ b/tools/input.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="838">
   <si>
     <t>歌名</t>
   </si>
@@ -2002,6 +2002,21 @@
   </si>
   <si>
     <t>光亮</t>
+  </si>
+  <si>
+    <t>篇章</t>
+  </si>
+  <si>
+    <t>张韶涵、王赫野</t>
+  </si>
+  <si>
+    <t>想见你</t>
+  </si>
+  <si>
+    <t>八三夭</t>
+  </si>
+  <si>
+    <t>问星海</t>
   </si>
   <si>
     <t>标题</t>
@@ -2920,7 +2935,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I393"/>
+  <dimension ref="A1:I396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8524,6 +8539,48 @@
         <v>7</v>
       </c>
       <c r="D393" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="B394" s="0" t="s">
+        <v>661</v>
+      </c>
+      <c r="C394" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D394" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="0" t="s">
+        <v>662</v>
+      </c>
+      <c r="B395" s="0" t="s">
+        <v>663</v>
+      </c>
+      <c r="C395" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D395" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="0" t="s">
+        <v>664</v>
+      </c>
+      <c r="B396" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="C396" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D396" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8584,266 +8641,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>660</v>
+        <v>665</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="3" ht="60" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
     </row>
     <row r="5" ht="60" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6" ht="60" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="7" ht="60" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="21" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="22" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
     </row>
     <row r="23" ht="60" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
     </row>
     <row r="24" ht="60" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
     </row>
     <row r="25" ht="60" customHeight="1"/>
@@ -8882,423 +8939,423 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="E1" s="0" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -9343,7 +9400,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9353,27 +9410,36 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n"/>
+      <c r="B5" s="0" t="n"/>
+      <c r="C5" s="0" t="n"/>
+      <c r="D5" s="0" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n"/>
+      <c r="B6" s="0" t="n"/>
+      <c r="C6" s="0" t="n"/>
+      <c r="D6" s="0" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="n"/>
+      <c r="B7" s="0" t="n"/>
+      <c r="C7" s="0" t="n"/>
+      <c r="D7" s="0" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n"/>

--- a/tools/input.xlsx
+++ b/tools/input.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="844">
   <si>
     <t>歌名</t>
   </si>
@@ -2017,6 +2017,21 @@
   </si>
   <si>
     <t>问星海</t>
+  </si>
+  <si>
+    <t>我用什么把你留住</t>
+  </si>
+  <si>
+    <t>福禄寿</t>
+  </si>
+  <si>
+    <t>达拉崩吧</t>
+  </si>
+  <si>
+    <t>煎熬</t>
+  </si>
+  <si>
+    <t>李佳薇</t>
   </si>
   <si>
     <t>标题</t>
@@ -2560,6 +2575,9 @@
   </si>
   <si>
     <t>试歌</t>
+  </si>
+  <si>
+    <t>梦回花事了</t>
   </si>
 </sst>
 </file>
@@ -2935,7 +2953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I396"/>
+  <dimension ref="A1:I399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8581,6 +8599,48 @@
         <v>7</v>
       </c>
       <c r="D396" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="0" t="s">
+        <v>665</v>
+      </c>
+      <c r="B397" s="0" t="s">
+        <v>666</v>
+      </c>
+      <c r="C397" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D397" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="0" t="s">
+        <v>667</v>
+      </c>
+      <c r="B398" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C398" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D398" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B399" s="0" t="s">
+        <v>669</v>
+      </c>
+      <c r="C399" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D399" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8641,266 +8701,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3" ht="60" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>674</v>
+        <v>679</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="5" ht="60" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
     </row>
     <row r="6" ht="60" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="7" ht="60" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
     </row>
     <row r="21" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="22" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
     </row>
     <row r="23" ht="60" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
     </row>
     <row r="24" ht="60" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="25" ht="60" customHeight="1"/>
@@ -8939,423 +8999,423 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="E1" s="0" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
     </row>
   </sheetData>
@@ -9400,7 +9460,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9410,39 +9470,62 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n"/>
+      <c r="A5" s="0" t="s">
+        <v>665</v>
+      </c>
       <c r="B5" s="0" t="n"/>
       <c r="C5" s="0" t="n"/>
       <c r="D5" s="0" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="n"/>
+      <c r="A6" s="0" t="s">
+        <v>667</v>
+      </c>
       <c r="B6" s="0" t="n"/>
       <c r="C6" s="0" t="n"/>
       <c r="D6" s="0" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="n"/>
+      <c r="A7" s="3" t="s">
+        <v>668</v>
+      </c>
       <c r="B7" s="0" t="n"/>
       <c r="C7" s="0" t="n"/>
       <c r="D7" s="0" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/tools/input.xlsx
+++ b/tools/input.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="846">
   <si>
     <t>歌名</t>
   </si>
@@ -1846,6 +1846,9 @@
   </si>
   <si>
     <t>余又</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV16UQBYLE4z</t>
   </si>
   <si>
     <t>送你一朵小红花</t>
@@ -2575,6 +2578,9 @@
   </si>
   <si>
     <t>试歌</t>
+  </si>
+  <si>
+    <t>云深不知处</t>
   </si>
   <si>
     <t>梦回花事了</t>
@@ -8038,13 +8044,16 @@
       <c r="D356" s="0" t="s">
         <v>8</v>
       </c>
+      <c r="E356" s="8" t="s">
+        <v>608</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="0" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="B357" s="0" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C357" s="0" t="s">
         <v>7</v>
@@ -8055,10 +8064,10 @@
     </row>
     <row r="358">
       <c r="A358" s="0" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B358" s="0" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C358" s="0" t="s">
         <v>7</v>
@@ -8069,10 +8078,10 @@
     </row>
     <row r="359">
       <c r="A359" s="0" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B359" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C359" s="0" t="s">
         <v>7</v>
@@ -8083,10 +8092,10 @@
     </row>
     <row r="360">
       <c r="A360" s="0" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="B360" s="0" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C360" s="0" t="s">
         <v>7</v>
@@ -8097,10 +8106,10 @@
     </row>
     <row r="361">
       <c r="A361" s="0" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B361" s="0" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C361" s="0" t="s">
         <v>7</v>
@@ -8111,10 +8120,10 @@
     </row>
     <row r="362">
       <c r="A362" s="0" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B362" s="0" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C362" s="0" t="s">
         <v>7</v>
@@ -8125,10 +8134,10 @@
     </row>
     <row r="363">
       <c r="A363" s="0" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B363" s="0" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C363" s="0" t="s">
         <v>7</v>
@@ -8139,10 +8148,10 @@
     </row>
     <row r="364">
       <c r="A364" s="0" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B364" s="0" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C364" s="0" t="s">
         <v>7</v>
@@ -8153,7 +8162,7 @@
     </row>
     <row r="365">
       <c r="A365" s="0" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B365" s="0" t="s">
         <v>594</v>
@@ -8167,10 +8176,10 @@
     </row>
     <row r="366">
       <c r="A366" s="0" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B366" s="0" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C366" s="0" t="s">
         <v>7</v>
@@ -8181,10 +8190,10 @@
     </row>
     <row r="367">
       <c r="A367" s="0" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B367" s="0" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C367" s="0" t="s">
         <v>7</v>
@@ -8195,10 +8204,10 @@
     </row>
     <row r="368">
       <c r="A368" s="0" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="B368" s="0" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C368" s="0" t="s">
         <v>7</v>
@@ -8209,7 +8218,7 @@
     </row>
     <row r="369">
       <c r="A369" s="0" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="B369" s="0" t="s">
         <v>430</v>
@@ -8223,10 +8232,10 @@
     </row>
     <row r="370">
       <c r="A370" s="0" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="B370" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C370" s="0" t="s">
         <v>7</v>
@@ -8238,10 +8247,10 @@
     </row>
     <row r="371">
       <c r="A371" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="B371" s="0" t="s">
         <v>633</v>
-      </c>
-      <c r="B371" s="0" t="s">
-        <v>632</v>
       </c>
       <c r="C371" s="0" t="s">
         <v>7</v>
@@ -8253,10 +8262,10 @@
     </row>
     <row r="372">
       <c r="A372" s="0" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B372" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C372" s="0" t="s">
         <v>7</v>
@@ -8268,10 +8277,10 @@
     </row>
     <row r="373">
       <c r="A373" s="0" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="B373" s="0" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C373" s="0" t="s">
         <v>7</v>
@@ -8282,10 +8291,10 @@
     </row>
     <row r="374">
       <c r="A374" s="0" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B374" s="0" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C374" s="0" t="s">
         <v>7</v>
@@ -8296,10 +8305,10 @@
     </row>
     <row r="375">
       <c r="A375" s="0" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B375" s="0" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C375" s="0" t="s">
         <v>7</v>
@@ -8310,10 +8319,10 @@
     </row>
     <row r="376">
       <c r="A376" s="0" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B376" s="0" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C376" s="0" t="s">
         <v>7</v>
@@ -8324,7 +8333,7 @@
     </row>
     <row r="377">
       <c r="A377" s="0" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B377" s="0" t="s">
         <v>387</v>
@@ -8338,7 +8347,7 @@
     </row>
     <row r="378">
       <c r="A378" s="0" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B378" s="0" t="s">
         <v>387</v>
@@ -8352,7 +8361,7 @@
     </row>
     <row r="379">
       <c r="A379" s="0" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B379" s="0" t="s">
         <v>387</v>
@@ -8380,7 +8389,7 @@
     </row>
     <row r="381">
       <c r="A381" s="0" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B381" s="0" t="s">
         <v>387</v>
@@ -8394,7 +8403,7 @@
     </row>
     <row r="382">
       <c r="A382" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B382" s="0" t="s">
         <v>387</v>
@@ -8408,7 +8417,7 @@
     </row>
     <row r="383">
       <c r="A383" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B383" s="0" t="s">
         <v>387</v>
@@ -8422,7 +8431,7 @@
     </row>
     <row r="384">
       <c r="A384" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B384" s="0" t="s">
         <v>387</v>
@@ -8436,7 +8445,7 @@
     </row>
     <row r="385">
       <c r="A385" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B385" s="0" t="s">
         <v>387</v>
@@ -8450,7 +8459,7 @@
     </row>
     <row r="386">
       <c r="A386" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B386" s="0" t="s">
         <v>387</v>
@@ -8464,7 +8473,7 @@
     </row>
     <row r="387">
       <c r="A387" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B387" s="0" t="s">
         <v>387</v>
@@ -8478,10 +8487,10 @@
     </row>
     <row r="388">
       <c r="A388" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C388" s="0" t="s">
         <v>7</v>
@@ -8492,7 +8501,7 @@
     </row>
     <row r="389">
       <c r="A389" s="0" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B389" s="0" t="s">
         <v>546</v>
@@ -8506,7 +8515,7 @@
     </row>
     <row r="390">
       <c r="A390" s="3" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B390" s="0" t="s">
         <v>546</v>
@@ -8520,7 +8529,7 @@
     </row>
     <row r="391">
       <c r="A391" s="0" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B391" s="0" t="s">
         <v>430</v>
@@ -8534,10 +8543,10 @@
     </row>
     <row r="392">
       <c r="A392" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C392" s="0" t="s">
         <v>7</v>
@@ -8548,7 +8557,7 @@
     </row>
     <row r="393">
       <c r="A393" s="0" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B393" s="0" t="s">
         <v>55</v>
@@ -8562,10 +8571,10 @@
     </row>
     <row r="394">
       <c r="A394" s="3" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C394" s="0" t="s">
         <v>7</v>
@@ -8576,10 +8585,10 @@
     </row>
     <row r="395">
       <c r="A395" s="0" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C395" s="0" t="s">
         <v>7</v>
@@ -8590,7 +8599,7 @@
     </row>
     <row r="396">
       <c r="A396" s="0" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B396" s="0" t="s">
         <v>236</v>
@@ -8604,10 +8613,10 @@
     </row>
     <row r="397">
       <c r="A397" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C397" s="0" t="s">
         <v>7</v>
@@ -8618,7 +8627,7 @@
     </row>
     <row r="398">
       <c r="A398" s="0" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B398" s="0" t="s">
         <v>55</v>
@@ -8632,10 +8641,10 @@
     </row>
     <row r="399">
       <c r="A399" s="3" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C399" s="0" t="s">
         <v>7</v>
@@ -8674,6 +8683,7 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E302" display="https://www.bilibili.com/video/BV12WY5ebEDC" r:id="rId26"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E161" display="https://www.bilibili.com/video/BV1fobXe1EW1" r:id="rId27"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E214" display="https://www.bilibili.com/video/BV1NFqKYZEx9" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E356" display="https://www.bilibili.com/video/BV16UQBYLE4z" r:id="rId29"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8701,266 +8711,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="3" ht="60" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="5" ht="60" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="6" ht="60" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7" ht="60" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="21" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="22" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="23" ht="60" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="24" ht="60" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="25" ht="60" customHeight="1"/>
@@ -8999,423 +9009,423 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E1" s="0" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
   </sheetData>
@@ -9470,39 +9480,35 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>665</v>
+        <v>844</v>
       </c>
       <c r="B5" s="0" t="n"/>
       <c r="C5" s="0" t="n"/>
       <c r="D5" s="0" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>667</v>
-      </c>
+      <c r="A6" s="0" t="n"/>
       <c r="B6" s="0" t="n"/>
       <c r="C6" s="0" t="n"/>
       <c r="D6" s="0" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>668</v>
-      </c>
+      <c r="A7" s="3" t="n"/>
       <c r="B7" s="0" t="n"/>
       <c r="C7" s="0" t="n"/>
       <c r="D7" s="0" t="n"/>
@@ -9515,7 +9521,7 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="11">

--- a/tools/input.xlsx
+++ b/tools/input.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="848">
   <si>
     <t>歌名</t>
   </si>
@@ -2035,6 +2035,12 @@
   </si>
   <si>
     <t>李佳薇</t>
+  </si>
+  <si>
+    <t>梦回花事了</t>
+  </si>
+  <si>
+    <t>Lil Yo</t>
   </si>
   <si>
     <t>标题</t>
@@ -2580,10 +2586,10 @@
     <t>试歌</t>
   </si>
   <si>
+    <t>琵琶行</t>
+  </si>
+  <si>
     <t>云深不知处</t>
-  </si>
-  <si>
-    <t>梦回花事了</t>
   </si>
 </sst>
 </file>
@@ -2959,7 +2965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I399"/>
+  <dimension ref="A1:I400"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8651,6 +8657,20 @@
       </c>
       <c r="D399" s="0" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="B400" s="0" t="s">
+        <v>672</v>
+      </c>
+      <c r="C400" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D400" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -8711,266 +8731,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="3" ht="60" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="5" ht="60" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="6" ht="60" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="7" ht="60" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="21" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
     </row>
     <row r="22" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="23" ht="60" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="24" ht="60" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
     </row>
     <row r="25" ht="60" customHeight="1"/>
@@ -9009,423 +9029,423 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E1" s="0" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>743</v>
+        <v>745</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
+        <v>730</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>728</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>726</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
@@ -9480,23 +9500,21 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="8" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>844</v>
-      </c>
+      <c r="A5" s="0" t="n"/>
       <c r="B5" s="0" t="n"/>
       <c r="C5" s="0" t="n"/>
       <c r="D5" s="0" t="n"/>
@@ -9517,15 +9535,17 @@
       <c r="A8" s="0" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="n"/>
+      <c r="A9" s="0" t="s">
+        <v>846</v>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>845</v>
+      <c r="A10" s="3" t="s">
+        <v>847</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n"/>
+      <c r="A11" s="0" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n"/>

--- a/tools/input.xlsx
+++ b/tools/input.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="850">
   <si>
     <t>歌名</t>
   </si>
@@ -2041,6 +2041,12 @@
   </si>
   <si>
     <t>Lil Yo</t>
+  </si>
+  <si>
+    <t>暮色回响</t>
+  </si>
+  <si>
+    <t>字字句句</t>
   </si>
   <si>
     <t>标题</t>
@@ -2649,7 +2655,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2658,14 +2664,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -2965,7 +2963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I400"/>
+  <dimension ref="A1:I402"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3102,7 +3100,7 @@
       <c r="D9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="4" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3587,7 +3585,7 @@
       <c r="D43" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="4" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4136,7 +4134,7 @@
       <c r="D82" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="4" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4363,7 +4361,7 @@
       <c r="D98" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="4" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4730,7 +4728,7 @@
       <c r="D124" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E124" s="4" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5251,7 +5249,7 @@
       <c r="D161" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E161" s="8" t="s">
+      <c r="E161" s="4" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5548,7 +5546,7 @@
       <c r="D182" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E182" s="8" t="s">
+      <c r="E182" s="4" t="s">
         <v>322</v>
       </c>
     </row>
@@ -5929,7 +5927,7 @@
       <c r="D209" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E209" s="8" t="s">
+      <c r="E209" s="4" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6002,7 +6000,7 @@
       <c r="D214" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E214" s="8" t="s">
+      <c r="E214" s="4" t="s">
         <v>373</v>
       </c>
     </row>
@@ -6019,7 +6017,7 @@
       <c r="D215" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E215" s="8" t="s">
+      <c r="E215" s="4" t="s">
         <v>375</v>
       </c>
     </row>
@@ -6456,7 +6454,7 @@
       <c r="D246" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E246" s="8" t="s">
+      <c r="E246" s="4" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7019,7 +7017,7 @@
       <c r="D286" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E286" s="8" t="s">
+      <c r="E286" s="4" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7106,7 +7104,7 @@
       <c r="D292" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E292" s="8" t="s">
+      <c r="E292" s="4" t="s">
         <v>496</v>
       </c>
     </row>
@@ -7249,7 +7247,7 @@
       <c r="D302" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E302" s="8" t="s">
+      <c r="E302" s="4" t="s">
         <v>511</v>
       </c>
     </row>
@@ -7322,7 +7320,7 @@
       <c r="D307" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E307" s="8" t="s">
+      <c r="E307" s="4" t="s">
         <v>520</v>
       </c>
     </row>
@@ -7647,7 +7645,7 @@
       <c r="D330" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E330" s="8" t="s">
+      <c r="E330" s="4" t="s">
         <v>555</v>
       </c>
     </row>
@@ -7706,7 +7704,7 @@
       <c r="D334" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E334" s="8" t="s">
+      <c r="E334" s="4" t="s">
         <v>563</v>
       </c>
     </row>
@@ -7863,7 +7861,7 @@
       <c r="D345" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E345" s="8" t="s">
+      <c r="E345" s="4" t="s">
         <v>579</v>
       </c>
     </row>
@@ -7880,7 +7878,7 @@
       <c r="D346" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E346" s="8" t="s">
+      <c r="E346" s="4" t="s">
         <v>581</v>
       </c>
     </row>
@@ -7897,7 +7895,7 @@
       <c r="D347" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E347" s="8" t="s">
+      <c r="E347" s="4" t="s">
         <v>584</v>
       </c>
     </row>
@@ -7914,7 +7912,7 @@
       <c r="D348" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E348" s="8" t="s">
+      <c r="E348" s="4" t="s">
         <v>586</v>
       </c>
     </row>
@@ -7931,7 +7929,7 @@
       <c r="D349" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E349" s="8" t="s">
+      <c r="E349" s="4" t="s">
         <v>589</v>
       </c>
     </row>
@@ -7948,7 +7946,7 @@
       <c r="D350" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E350" s="8" t="s">
+      <c r="E350" s="4" t="s">
         <v>592</v>
       </c>
     </row>
@@ -7965,7 +7963,7 @@
       <c r="D351" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E351" s="8" t="s">
+      <c r="E351" s="4" t="s">
         <v>595</v>
       </c>
     </row>
@@ -7982,7 +7980,7 @@
       <c r="D352" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E352" s="8" t="s">
+      <c r="E352" s="4" t="s">
         <v>598</v>
       </c>
     </row>
@@ -7999,7 +7997,7 @@
       <c r="D353" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E353" s="8" t="s">
+      <c r="E353" s="4" t="s">
         <v>600</v>
       </c>
     </row>
@@ -8016,7 +8014,7 @@
       <c r="D354" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E354" s="8" t="s">
+      <c r="E354" s="4" t="s">
         <v>603</v>
       </c>
     </row>
@@ -8033,7 +8031,7 @@
       <c r="D355" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E355" s="8" t="s">
+      <c r="E355" s="4" t="s">
         <v>605</v>
       </c>
     </row>
@@ -8050,7 +8048,7 @@
       <c r="D356" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E356" s="8" t="s">
+      <c r="E356" s="4" t="s">
         <v>608</v>
       </c>
     </row>
@@ -8671,6 +8669,34 @@
       </c>
       <c r="D400" s="0" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="B401" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C401" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D401" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="0" t="s">
+        <v>674</v>
+      </c>
+      <c r="B402" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C402" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D402" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -8731,266 +8757,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="3" ht="60" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="5" ht="60" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="6" ht="60" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="7" ht="60" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="21" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="22" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="23" ht="60" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="24" ht="60" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="25" ht="60" customHeight="1"/>
@@ -9029,423 +9055,423 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
       <c r="E1" s="0" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>743</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>744</v>
+        <v>745</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>746</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>747</v>
+        <v>748</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>749</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>750</v>
+        <v>751</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>754</v>
+        <v>755</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>757</v>
+        <v>758</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>760</v>
+        <v>761</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>762</v>
+        <v>763</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>765</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>766</v>
+        <v>767</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>770</v>
+        <v>771</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>773</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>774</v>
+        <v>775</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>777</v>
+        <v>778</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>780</v>
+        <v>781</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>784</v>
+        <v>785</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>787</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>788</v>
+        <v>789</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>791</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>792</v>
+        <v>793</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>794</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>795</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>796</v>
+        <v>797</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>798</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>799</v>
+        <v>800</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>803</v>
+        <v>804</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>806</v>
+        <v>807</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>808</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>809</v>
+        <v>810</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>813</v>
+        <v>814</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>816</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>817</v>
+        <v>818</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>820</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>821</v>
+        <v>822</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>824</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>825</v>
+        <v>826</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>827</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>829</v>
+        <v>830</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>833</v>
+        <v>834</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>835</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>733</v>
+        <v>735</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>836</v>
+        <v>837</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
+        <v>732</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>730</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>728</v>
-      </c>
       <c r="C29" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>838</v>
+        <v>839</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>842</v>
+        <v>843</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -9500,17 +9526,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>844</v>
+      <c r="A2" s="4" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
     </row>
     <row r="5">
@@ -9536,12 +9562,12 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="11">

--- a/tools/input.xlsx
+++ b/tools/input.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="850">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="855">
   <si>
     <t>歌名</t>
   </si>
@@ -2047,6 +2047,21 @@
   </si>
   <si>
     <t>字字句句</t>
+  </si>
+  <si>
+    <t>大声唱</t>
+  </si>
+  <si>
+    <t>骗赖</t>
+  </si>
+  <si>
+    <t>小緣、嗷叔</t>
+  </si>
+  <si>
+    <t>38度6</t>
+  </si>
+  <si>
+    <t>黑龙</t>
   </si>
   <si>
     <t>标题</t>
@@ -2655,7 +2670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2664,6 +2679,14 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -2963,7 +2986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I402"/>
+  <dimension ref="A1:I405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3100,7 +3123,7 @@
       <c r="D9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="8" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3585,7 +3608,7 @@
       <c r="D43" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4134,7 +4157,7 @@
       <c r="D82" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="4" t="s">
+      <c r="E82" s="8" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4361,7 +4384,7 @@
       <c r="D98" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E98" s="4" t="s">
+      <c r="E98" s="8" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4728,7 +4751,7 @@
       <c r="D124" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="4" t="s">
+      <c r="E124" s="8" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5249,7 +5272,7 @@
       <c r="D161" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E161" s="4" t="s">
+      <c r="E161" s="8" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5546,7 +5569,7 @@
       <c r="D182" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E182" s="4" t="s">
+      <c r="E182" s="8" t="s">
         <v>322</v>
       </c>
     </row>
@@ -5927,7 +5950,7 @@
       <c r="D209" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E209" s="4" t="s">
+      <c r="E209" s="8" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6000,7 +6023,7 @@
       <c r="D214" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E214" s="4" t="s">
+      <c r="E214" s="8" t="s">
         <v>373</v>
       </c>
     </row>
@@ -6017,7 +6040,7 @@
       <c r="D215" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E215" s="4" t="s">
+      <c r="E215" s="8" t="s">
         <v>375</v>
       </c>
     </row>
@@ -6454,7 +6477,7 @@
       <c r="D246" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E246" s="4" t="s">
+      <c r="E246" s="8" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7017,7 +7040,7 @@
       <c r="D286" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E286" s="4" t="s">
+      <c r="E286" s="8" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7104,7 +7127,7 @@
       <c r="D292" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E292" s="4" t="s">
+      <c r="E292" s="8" t="s">
         <v>496</v>
       </c>
     </row>
@@ -7247,7 +7270,7 @@
       <c r="D302" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E302" s="4" t="s">
+      <c r="E302" s="8" t="s">
         <v>511</v>
       </c>
     </row>
@@ -7320,7 +7343,7 @@
       <c r="D307" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E307" s="4" t="s">
+      <c r="E307" s="8" t="s">
         <v>520</v>
       </c>
     </row>
@@ -7645,7 +7668,7 @@
       <c r="D330" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E330" s="4" t="s">
+      <c r="E330" s="8" t="s">
         <v>555</v>
       </c>
     </row>
@@ -7704,7 +7727,7 @@
       <c r="D334" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E334" s="4" t="s">
+      <c r="E334" s="8" t="s">
         <v>563</v>
       </c>
     </row>
@@ -7861,7 +7884,7 @@
       <c r="D345" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E345" s="4" t="s">
+      <c r="E345" s="8" t="s">
         <v>579</v>
       </c>
     </row>
@@ -7878,7 +7901,7 @@
       <c r="D346" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E346" s="4" t="s">
+      <c r="E346" s="8" t="s">
         <v>581</v>
       </c>
     </row>
@@ -7895,7 +7918,7 @@
       <c r="D347" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E347" s="4" t="s">
+      <c r="E347" s="8" t="s">
         <v>584</v>
       </c>
     </row>
@@ -7912,7 +7935,7 @@
       <c r="D348" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E348" s="4" t="s">
+      <c r="E348" s="8" t="s">
         <v>586</v>
       </c>
     </row>
@@ -7929,7 +7952,7 @@
       <c r="D349" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E349" s="4" t="s">
+      <c r="E349" s="8" t="s">
         <v>589</v>
       </c>
     </row>
@@ -7946,7 +7969,7 @@
       <c r="D350" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E350" s="4" t="s">
+      <c r="E350" s="8" t="s">
         <v>592</v>
       </c>
     </row>
@@ -7963,7 +7986,7 @@
       <c r="D351" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E351" s="4" t="s">
+      <c r="E351" s="8" t="s">
         <v>595</v>
       </c>
     </row>
@@ -7980,7 +8003,7 @@
       <c r="D352" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E352" s="4" t="s">
+      <c r="E352" s="8" t="s">
         <v>598</v>
       </c>
     </row>
@@ -7997,7 +8020,7 @@
       <c r="D353" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E353" s="4" t="s">
+      <c r="E353" s="8" t="s">
         <v>600</v>
       </c>
     </row>
@@ -8014,7 +8037,7 @@
       <c r="D354" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E354" s="4" t="s">
+      <c r="E354" s="8" t="s">
         <v>603</v>
       </c>
     </row>
@@ -8031,7 +8054,7 @@
       <c r="D355" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E355" s="4" t="s">
+      <c r="E355" s="8" t="s">
         <v>605</v>
       </c>
     </row>
@@ -8048,7 +8071,7 @@
       <c r="D356" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E356" s="4" t="s">
+      <c r="E356" s="8" t="s">
         <v>608</v>
       </c>
     </row>
@@ -8696,6 +8719,48 @@
         <v>7</v>
       </c>
       <c r="D402" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="0" t="s">
+        <v>675</v>
+      </c>
+      <c r="B403" s="0" t="s">
+        <v>387</v>
+      </c>
+      <c r="C403" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D403" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="0" t="s">
+        <v>676</v>
+      </c>
+      <c r="B404" s="0" t="s">
+        <v>677</v>
+      </c>
+      <c r="C404" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D404" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="B405" s="0" t="s">
+        <v>679</v>
+      </c>
+      <c r="C405" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D405" s="0" t="s">
         <v>8</v>
       </c>
     </row>
@@ -8757,266 +8822,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>678</v>
+        <v>683</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="3" ht="60" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>682</v>
+        <v>687</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>684</v>
+        <v>689</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="5" ht="60" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="6" ht="60" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>690</v>
+        <v>695</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7" ht="60" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>692</v>
+        <v>697</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>696</v>
+        <v>701</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>698</v>
+        <v>703</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>702</v>
+        <v>707</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>704</v>
+        <v>709</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>706</v>
+        <v>711</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>707</v>
+        <v>712</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>713</v>
+        <v>718</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>714</v>
+        <v>719</v>
       </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>715</v>
+        <v>720</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>716</v>
+        <v>721</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>720</v>
+        <v>725</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>724</v>
+        <v>729</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>725</v>
+        <v>730</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>726</v>
+        <v>731</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>728</v>
+        <v>733</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>729</v>
+        <v>734</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
     </row>
     <row r="21" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
     </row>
     <row r="22" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
     </row>
     <row r="23" ht="60" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
     </row>
     <row r="24" ht="60" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="25" ht="60" customHeight="1"/>
@@ -9055,423 +9120,423 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="E1" s="0" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>745</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>746</v>
+        <v>750</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>719</v>
+        <v>724</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>748</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>749</v>
+        <v>753</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>680</v>
+        <v>685</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>752</v>
+        <v>756</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>755</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>756</v>
+        <v>760</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>758</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>759</v>
+        <v>763</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>727</v>
+        <v>732</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>761</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>762</v>
+        <v>766</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>764</v>
+        <v>768</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>767</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>768</v>
+        <v>772</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>771</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>772</v>
+        <v>776</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>776</v>
+        <v>780</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>779</v>
+        <v>783</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>781</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>782</v>
+        <v>786</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>786</v>
+        <v>790</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>790</v>
+        <v>794</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>793</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>794</v>
+        <v>798</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>799</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>797</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>798</v>
+        <v>802</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>801</v>
+        <v>805</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>806</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>805</v>
+        <v>809</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>810</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>807</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>808</v>
+        <v>812</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>813</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>811</v>
+        <v>815</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>815</v>
+        <v>819</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>819</v>
+        <v>823</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>824</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>822</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>823</v>
+        <v>827</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>828</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>826</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>827</v>
+        <v>831</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>830</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>831</v>
+        <v>835</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>835</v>
+        <v>839</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>838</v>
+        <v>842</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>843</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>840</v>
+        <v>844</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>845</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>844</v>
+        <v>848</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>849</v>
       </c>
     </row>
   </sheetData>
@@ -9526,17 +9591,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>846</v>
+      <c r="A2" s="8" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
     </row>
     <row r="5">
@@ -9552,7 +9617,7 @@
       <c r="D6" s="0" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n"/>
+      <c r="A7" s="0" t="n"/>
       <c r="B7" s="0" t="n"/>
       <c r="C7" s="0" t="n"/>
       <c r="D7" s="0" t="n"/>
@@ -9562,12 +9627,12 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
     </row>
     <row r="11">

--- a/tools/input.xlsx
+++ b/tools/input.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="垂名青史" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="粉丝" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="网站" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="网络神曲" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="855">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="874">
   <si>
     <t>歌名</t>
   </si>
@@ -2062,6 +2063,24 @@
   </si>
   <si>
     <t>黑龙</t>
+  </si>
+  <si>
+    <t>若月亮没来</t>
+  </si>
+  <si>
+    <t>王宇宙Leto、喬浚丞</t>
+  </si>
+  <si>
+    <t>探故知</t>
+  </si>
+  <si>
+    <t>浅影阿</t>
+  </si>
+  <si>
+    <t>壁上观</t>
+  </si>
+  <si>
+    <t>一棵小葱、张晓涵</t>
   </si>
   <si>
     <t>标题</t>
@@ -2607,10 +2626,49 @@
     <t>试歌</t>
   </si>
   <si>
+    <t>烟火里的尘埃</t>
+  </si>
+  <si>
     <t>琵琶行</t>
   </si>
   <si>
     <t>云深不知处</t>
+  </si>
+  <si>
+    <t>玫瑰花的葬礼</t>
+  </si>
+  <si>
+    <t>热爱105度的你</t>
+  </si>
+  <si>
+    <t>跳楼机</t>
+  </si>
+  <si>
+    <t>孤勇者</t>
+  </si>
+  <si>
+    <t>羞答答的玫瑰静悄悄的开</t>
+  </si>
+  <si>
+    <t>原因</t>
+  </si>
+  <si>
+    <t>快节奏流行</t>
+  </si>
+  <si>
+    <t>有意思流行</t>
+  </si>
+  <si>
+    <t>香水有毒</t>
+  </si>
+  <si>
+    <t>古早时期</t>
+  </si>
+  <si>
+    <t>不怕不怕</t>
+  </si>
+  <si>
+    <t>我期待的不是雪</t>
   </si>
 </sst>
 </file>
@@ -2618,7 +2676,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2634,6 +2692,10 @@
     <font>
       <name val="Arial"/>
       <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="10"/>
     </font>
     <font>
@@ -2658,7 +2720,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -2666,11 +2728,16 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <bottom style="thin">
+        <color rgb="FFDDDDDD"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2679,16 +2746,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2986,7 +3049,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I405"/>
+  <dimension ref="A1:I409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3123,7 +3186,7 @@
       <c r="D9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="6" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3608,7 +3671,7 @@
       <c r="D43" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="6" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4157,7 +4220,7 @@
       <c r="D82" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="6" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4384,7 +4447,7 @@
       <c r="D98" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="6" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4751,7 +4814,7 @@
       <c r="D124" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="8" t="s">
+      <c r="E124" s="6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5272,7 +5335,7 @@
       <c r="D161" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E161" s="8" t="s">
+      <c r="E161" s="6" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5569,7 +5632,7 @@
       <c r="D182" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E182" s="8" t="s">
+      <c r="E182" s="6" t="s">
         <v>322</v>
       </c>
     </row>
@@ -5950,7 +6013,7 @@
       <c r="D209" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E209" s="8" t="s">
+      <c r="E209" s="6" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6023,7 +6086,7 @@
       <c r="D214" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E214" s="8" t="s">
+      <c r="E214" s="6" t="s">
         <v>373</v>
       </c>
     </row>
@@ -6040,7 +6103,7 @@
       <c r="D215" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E215" s="8" t="s">
+      <c r="E215" s="6" t="s">
         <v>375</v>
       </c>
     </row>
@@ -6477,7 +6540,7 @@
       <c r="D246" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E246" s="8" t="s">
+      <c r="E246" s="6" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7040,7 +7103,7 @@
       <c r="D286" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E286" s="8" t="s">
+      <c r="E286" s="6" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7127,7 +7190,7 @@
       <c r="D292" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E292" s="8" t="s">
+      <c r="E292" s="6" t="s">
         <v>496</v>
       </c>
     </row>
@@ -7270,7 +7333,7 @@
       <c r="D302" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E302" s="8" t="s">
+      <c r="E302" s="6" t="s">
         <v>511</v>
       </c>
     </row>
@@ -7343,7 +7406,7 @@
       <c r="D307" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E307" s="8" t="s">
+      <c r="E307" s="6" t="s">
         <v>520</v>
       </c>
     </row>
@@ -7668,7 +7731,7 @@
       <c r="D330" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E330" s="8" t="s">
+      <c r="E330" s="6" t="s">
         <v>555</v>
       </c>
     </row>
@@ -7727,7 +7790,7 @@
       <c r="D334" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E334" s="8" t="s">
+      <c r="E334" s="6" t="s">
         <v>563</v>
       </c>
     </row>
@@ -7884,7 +7947,7 @@
       <c r="D345" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E345" s="8" t="s">
+      <c r="E345" s="6" t="s">
         <v>579</v>
       </c>
     </row>
@@ -7901,7 +7964,7 @@
       <c r="D346" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E346" s="8" t="s">
+      <c r="E346" s="6" t="s">
         <v>581</v>
       </c>
     </row>
@@ -7918,7 +7981,7 @@
       <c r="D347" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E347" s="8" t="s">
+      <c r="E347" s="6" t="s">
         <v>584</v>
       </c>
     </row>
@@ -7935,7 +7998,7 @@
       <c r="D348" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E348" s="8" t="s">
+      <c r="E348" s="6" t="s">
         <v>586</v>
       </c>
     </row>
@@ -7952,7 +8015,7 @@
       <c r="D349" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E349" s="8" t="s">
+      <c r="E349" s="6" t="s">
         <v>589</v>
       </c>
     </row>
@@ -7969,7 +8032,7 @@
       <c r="D350" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E350" s="8" t="s">
+      <c r="E350" s="6" t="s">
         <v>592</v>
       </c>
     </row>
@@ -7986,7 +8049,7 @@
       <c r="D351" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E351" s="8" t="s">
+      <c r="E351" s="6" t="s">
         <v>595</v>
       </c>
     </row>
@@ -8003,7 +8066,7 @@
       <c r="D352" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E352" s="8" t="s">
+      <c r="E352" s="6" t="s">
         <v>598</v>
       </c>
     </row>
@@ -8020,7 +8083,7 @@
       <c r="D353" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E353" s="8" t="s">
+      <c r="E353" s="6" t="s">
         <v>600</v>
       </c>
     </row>
@@ -8037,7 +8100,7 @@
       <c r="D354" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E354" s="8" t="s">
+      <c r="E354" s="6" t="s">
         <v>603</v>
       </c>
     </row>
@@ -8054,7 +8117,7 @@
       <c r="D355" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E355" s="8" t="s">
+      <c r="E355" s="6" t="s">
         <v>605</v>
       </c>
     </row>
@@ -8071,7 +8134,7 @@
       <c r="D356" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E356" s="8" t="s">
+      <c r="E356" s="6" t="s">
         <v>608</v>
       </c>
     </row>
@@ -8763,6 +8826,54 @@
       <c r="D405" s="0" t="s">
         <v>8</v>
       </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="B406" s="0" t="s">
+        <v>681</v>
+      </c>
+      <c r="C406" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D406" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="B407" s="0" t="s">
+        <v>683</v>
+      </c>
+      <c r="C407" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D407" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="B408" s="0" t="s">
+        <v>685</v>
+      </c>
+      <c r="C408" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D408" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="0" t="n"/>
+      <c r="B409" s="0" t="n"/>
+      <c r="C409" s="0" t="n"/>
+      <c r="D409" s="0" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8822,266 +8933,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="3" ht="60" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>686</v>
+        <v>692</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>690</v>
+        <v>696</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="5" ht="60" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>693</v>
+        <v>699</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="6" ht="60" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>695</v>
+        <v>701</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>696</v>
+        <v>702</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="7" ht="60" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>699</v>
+        <v>705</v>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>714</v>
+        <v>720</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>715</v>
+        <v>721</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>720</v>
+        <v>726</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>725</v>
+        <v>731</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>727</v>
+        <v>733</v>
       </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>728</v>
+        <v>734</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
     </row>
     <row r="21" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>738</v>
+        <v>744</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
     </row>
     <row r="23" ht="60" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>741</v>
+        <v>747</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
     </row>
     <row r="24" ht="60" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>744</v>
+        <v>750</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
     </row>
     <row r="25" ht="60" customHeight="1"/>
@@ -9120,423 +9231,423 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>745</v>
+        <v>751</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>746</v>
+        <v>752</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>747</v>
+        <v>753</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="E1" s="0" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>694</v>
+        <v>700</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>751</v>
+        <v>756</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>724</v>
+        <v>730</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>753</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>754</v>
+        <v>759</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>755</v>
+        <v>761</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>757</v>
+        <v>762</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>758</v>
+        <v>764</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>759</v>
+        <v>765</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>760</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>761</v>
+        <v>766</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>762</v>
+        <v>768</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>763</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>764</v>
+        <v>769</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>765</v>
+        <v>771</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>767</v>
+        <v>772</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>768</v>
+        <v>774</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>768</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>769</v>
+        <v>774</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>770</v>
+        <v>776</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>771</v>
+        <v>777</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>773</v>
+        <v>778</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>774</v>
+        <v>780</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>775</v>
+        <v>781</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>777</v>
+        <v>782</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>778</v>
+        <v>784</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>779</v>
+        <v>785</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>780</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>781</v>
+        <v>786</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>783</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>784</v>
+        <v>789</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>787</v>
+        <v>792</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>789</v>
+        <v>795</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>790</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>791</v>
+        <v>796</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>792</v>
+        <v>798</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>793</v>
+        <v>799</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>794</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>795</v>
+        <v>800</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>798</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>799</v>
+        <v>804</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>805</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>800</v>
+        <v>806</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>801</v>
+        <v>807</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>803</v>
+        <v>808</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>809</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>804</v>
+        <v>810</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>805</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>806</v>
+        <v>811</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>812</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>807</v>
+        <v>813</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>808</v>
+        <v>814</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>809</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>810</v>
+        <v>815</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>812</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>813</v>
+        <v>818</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>716</v>
+        <v>722</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>814</v>
+        <v>820</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>816</v>
+        <v>821</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>817</v>
+        <v>823</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>818</v>
+        <v>824</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>819</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>820</v>
+        <v>825</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>821</v>
+        <v>827</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>824</v>
+        <v>829</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>827</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>828</v>
+        <v>833</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>830</v>
+        <v>836</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>832</v>
+        <v>837</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>838</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>833</v>
+        <v>839</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>834</v>
+        <v>840</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>836</v>
+        <v>841</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>842</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>837</v>
+        <v>843</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>838</v>
+        <v>844</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>840</v>
+        <v>845</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>846</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>740</v>
+        <v>746</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>841</v>
+        <v>847</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>842</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>843</v>
+        <v>848</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>849</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>737</v>
+        <v>743</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>844</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>845</v>
+        <v>850</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>851</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>846</v>
+        <v>852</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>847</v>
+        <v>853</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>849</v>
+        <v>854</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -9581,7 +9692,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9591,58 +9702,61 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>850</v>
+        <v>856</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="8" t="s">
-        <v>851</v>
+      <c r="A2" s="6" t="s">
+        <v>857</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>852</v>
+      <c r="A4" s="5" t="s">
+        <v>858</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="n"/>
+      <c r="A5" s="0" t="s">
+        <v>859</v>
+      </c>
       <c r="B5" s="0" t="n"/>
       <c r="C5" s="0" t="n"/>
       <c r="D5" s="0" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="n"/>
-      <c r="B6" s="0" t="n"/>
-      <c r="C6" s="0" t="n"/>
-      <c r="D6" s="0" t="n"/>
+      <c r="A6" s="0" t="s">
+        <v>860</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="n"/>
-      <c r="B7" s="0" t="n"/>
-      <c r="C7" s="0" t="n"/>
-      <c r="D7" s="0" t="n"/>
+      <c r="A7" s="3" t="s">
+        <v>861</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="n"/>
+      <c r="A8" s="0" t="s">
+        <v>862</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>854</v>
+      <c r="A10" s="0" t="s">
+        <v>864</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="n"/>
+      <c r="A11" s="0" t="s">
+        <v>865</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="n"/>
+      <c r="A12" s="0" t="s">
+        <v>866</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9650,4 +9764,284 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.544" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="C1" s="0" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>684</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="0" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>678</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="D6" s="0" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>868</v>
+      </c>
+      <c r="D7" s="0" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="D8" s="0" t="n"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="D9" s="0" t="n"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>634</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>869</v>
+      </c>
+      <c r="D10" s="0" t="n"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>870</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="D11" s="0" t="n"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>872</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="D12" s="0" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>871</v>
+      </c>
+      <c r="D13" s="0" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>647</v>
+      </c>
+      <c r="C14" s="0" t="n"/>
+      <c r="D14" s="0" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>673</v>
+      </c>
+      <c r="C15" s="0" t="n"/>
+      <c r="D15" s="0" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>680</v>
+      </c>
+      <c r="C16" s="0" t="n"/>
+      <c r="D16" s="0" t="n"/>
+      <c r="F16" s="0" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D17" s="0" t="n"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="D18" s="0" t="n"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" s="0" t="n"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="0" t="n"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>682</v>
+      </c>
+      <c r="D21" s="0" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22" s="0" t="n"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="0" t="n"/>
+    </row>
+    <row r="24">
+      <c r="D24" s="0" t="n"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="0" t="n"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="n"/>
+      <c r="B27" s="0" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="n"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="n"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="n"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/tools/input.xlsx
+++ b/tools/input.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="粉丝" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="网站" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="网络神曲" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="看视频" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="934">
   <si>
     <t>歌名</t>
   </si>
@@ -2081,6 +2082,36 @@
   </si>
   <si>
     <t>一棵小葱、张晓涵</t>
+  </si>
+  <si>
+    <t>李怡然同学</t>
+  </si>
+  <si>
+    <t>烟火里的尘埃</t>
+  </si>
+  <si>
+    <t>华晨宇</t>
+  </si>
+  <si>
+    <t>琵琶行</t>
+  </si>
+  <si>
+    <t>奇然、沈谧仁</t>
+  </si>
+  <si>
+    <t>云深不知处</t>
+  </si>
+  <si>
+    <t>七音盒</t>
+  </si>
+  <si>
+    <t>热爱105℃的你</t>
+  </si>
+  <si>
+    <t>阿肆</t>
+  </si>
+  <si>
+    <t>孤勇者</t>
   </si>
   <si>
     <t>标题</t>
@@ -2626,30 +2657,12 @@
     <t>试歌</t>
   </si>
   <si>
-    <t>烟火里的尘埃</t>
-  </si>
-  <si>
-    <t>琵琶行</t>
-  </si>
-  <si>
-    <t>云深不知处</t>
-  </si>
-  <si>
-    <t>玫瑰花的葬礼</t>
-  </si>
-  <si>
-    <t>热爱105度的你</t>
+    <t>羞答答的玫瑰静悄悄的开</t>
   </si>
   <si>
     <t>跳楼机</t>
   </si>
   <si>
-    <t>孤勇者</t>
-  </si>
-  <si>
-    <t>羞答答的玫瑰静悄悄的开</t>
-  </si>
-  <si>
     <t>原因</t>
   </si>
   <si>
@@ -2669,14 +2682,473 @@
   </si>
   <si>
     <t>我期待的不是雪</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>传送门</t>
+  </si>
+  <si>
+    <t>时长</t>
+  </si>
+  <si>
+    <t>类别</t>
+  </si>
+  <si>
+    <t>是否观看</t>
+  </si>
+  <si>
+    <t>游戏解说</t>
+  </si>
+  <si>
+    <t>森林 + 森林之子</t>
+  </si>
+  <si>
+    <t>BV1FsXCYcExj</t>
+  </si>
+  <si>
+    <t>恐怖游戏剧情</t>
+  </si>
+  <si>
+    <t>传说之下Undetale</t>
+  </si>
+  <si>
+    <t>BV1wy421h7vJ</t>
+  </si>
+  <si>
+    <t>神作游戏剧情</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <strike val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>逃生丨</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="1"/>
+        <strike val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>1上</t>
+    </r>
+  </si>
+  <si>
+    <t>BV1hq4y1671H</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <strike val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>逃生丨</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="1"/>
+        <strike val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>1下</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <strike val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>逃生丨</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="1"/>
+        <strike val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>2上</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <strike val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>逃生丨</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="1"/>
+        <strike val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>2下</t>
+    </r>
+  </si>
+  <si>
+    <t>动漫解说</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>神龙斗士丨</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>魔神英雄传</t>
+    </r>
+  </si>
+  <si>
+    <t>BV15S4y1x7tr</t>
+  </si>
+  <si>
+    <t>90后动漫解说</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>神龙斗士丨</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>魔神英雄传2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>神龙斗士丨</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>超魔神英雄传</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>神龙斗士丨</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>七魂龙神丸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>神兵小将丨</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>上部</t>
+    </r>
+  </si>
+  <si>
+    <t>BV18m4y1F7U8</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>神兵小将丨</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>下部</t>
+    </r>
+  </si>
+  <si>
+    <t>BV1L8411h7z2</t>
+  </si>
+  <si>
+    <t>灵异事件</t>
+  </si>
+  <si>
+    <t>【邓肯】拍短视频要小心了！主持人故宫身后白色女子事件！</t>
+  </si>
+  <si>
+    <t>BV1Zo4y1U78F</t>
+  </si>
+  <si>
+    <t>恐怖灵异事件</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>【全集】天涯论坛十大灵异事件丨邓肯解说丨</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>诡异的小婷562</t>
+    </r>
+  </si>
+  <si>
+    <t>BV1154y1s7Fs</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>【全集】天涯论坛十大灵异事件丨邓肯解说丨</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>恐怖阳台</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>【全集】天涯论坛十大灵异事件丨邓肯解说丨</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>左央招魂</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>【全集】天涯论坛十大灵异事件丨邓肯解说丨</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>每个月给你8000元，监视你的生活</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>【全集】天涯论坛十大灵异事件丨邓肯解说丨</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>南大碎尸案与黑弥撒</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>【全集】天涯论坛十大灵异事件丨邓肯解说丨</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>时间重置与曼德拉效应</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>【全集】天涯论坛十大灵异事件丨邓肯解说丨</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>人血旺喂老婆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>【全集】天涯论坛十大灵异事件丨邓肯解说丨</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>镜像房间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>【全集】天涯论坛十大灵异事件丨邓肯解说丨</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>这张照片里到底有几个人</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>【全集】天涯论坛十大灵异事件丨邓肯解说丨</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <b val="1"/>
+        <color rgb="00000000"/>
+      </rPr>
+      <t>诡异的精神分裂帖</t>
+    </r>
+  </si>
+  <si>
+    <t>搞笑视频</t>
+  </si>
+  <si>
+    <t>“ 这 T M 才 是 诸 神 黄 昏 ”</t>
+  </si>
+  <si>
+    <t>BV1iK4y1A7wf</t>
+  </si>
+  <si>
+    <t>轻松且搞笑</t>
+  </si>
+  <si>
+    <t>诸 神 的 黄 昏</t>
+  </si>
+  <si>
+    <t>BV1pV4y1G7tq</t>
+  </si>
+  <si>
+    <t>《凡 人 修 仙 传》</t>
+  </si>
+  <si>
+    <t>BV1gZ4y1u7s3</t>
+  </si>
+  <si>
+    <t>“诸 神 的 黄 昏”</t>
+  </si>
+  <si>
+    <t>BV1fb421E7Uc</t>
+  </si>
+  <si>
+    <t>“诸神得黄昏”</t>
+  </si>
+  <si>
+    <t>BV1gW421R75A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="5">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[hh]:mm"/>
+    <numFmt numFmtId="165" formatCode="hh:mm"/>
+  </numFmts>
+  <fonts count="11">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2699,12 +3171,46 @@
       <sz val="10"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <strike val="1"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <strike val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="10"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color rgb="FF0000FF"/>
       <sz val="11"/>
       <u val="single"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <strike val="1"/>
+      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <strike val="1"/>
+      <color rgb="FF0000FF"/>
+      <sz val="10"/>
+      <u val="single"/>
     </font>
   </fonts>
   <fills count="3">
@@ -2737,7 +3243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -2750,8 +3256,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3049,7 +3580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I409"/>
+  <dimension ref="A1:I415"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3186,7 +3717,7 @@
       <c r="D9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="17" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3671,7 +4202,7 @@
       <c r="D43" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E43" s="17" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4220,7 +4751,7 @@
       <c r="D82" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="17" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4447,7 +4978,7 @@
       <c r="D98" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E98" s="6" t="s">
+      <c r="E98" s="17" t="s">
         <v>183</v>
       </c>
     </row>
@@ -4814,7 +5345,7 @@
       <c r="D124" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="6" t="s">
+      <c r="E124" s="17" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5335,7 +5866,7 @@
       <c r="D161" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E161" s="6" t="s">
+      <c r="E161" s="17" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5632,7 +6163,7 @@
       <c r="D182" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E182" s="6" t="s">
+      <c r="E182" s="17" t="s">
         <v>322</v>
       </c>
     </row>
@@ -6013,7 +6544,7 @@
       <c r="D209" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E209" s="6" t="s">
+      <c r="E209" s="17" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6086,7 +6617,7 @@
       <c r="D214" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E214" s="6" t="s">
+      <c r="E214" s="17" t="s">
         <v>373</v>
       </c>
     </row>
@@ -6103,7 +6634,7 @@
       <c r="D215" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E215" s="6" t="s">
+      <c r="E215" s="17" t="s">
         <v>375</v>
       </c>
     </row>
@@ -6540,7 +7071,7 @@
       <c r="D246" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E246" s="6" t="s">
+      <c r="E246" s="17" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7103,7 +7634,7 @@
       <c r="D286" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E286" s="6" t="s">
+      <c r="E286" s="17" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7190,7 +7721,7 @@
       <c r="D292" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E292" s="6" t="s">
+      <c r="E292" s="17" t="s">
         <v>496</v>
       </c>
     </row>
@@ -7333,7 +7864,7 @@
       <c r="D302" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E302" s="6" t="s">
+      <c r="E302" s="17" t="s">
         <v>511</v>
       </c>
     </row>
@@ -7406,7 +7937,7 @@
       <c r="D307" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E307" s="6" t="s">
+      <c r="E307" s="17" t="s">
         <v>520</v>
       </c>
     </row>
@@ -7731,7 +8262,7 @@
       <c r="D330" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E330" s="6" t="s">
+      <c r="E330" s="17" t="s">
         <v>555</v>
       </c>
     </row>
@@ -7790,7 +8321,7 @@
       <c r="D334" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E334" s="6" t="s">
+      <c r="E334" s="17" t="s">
         <v>563</v>
       </c>
     </row>
@@ -7947,7 +8478,7 @@
       <c r="D345" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E345" s="6" t="s">
+      <c r="E345" s="17" t="s">
         <v>579</v>
       </c>
     </row>
@@ -7964,7 +8495,7 @@
       <c r="D346" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E346" s="6" t="s">
+      <c r="E346" s="17" t="s">
         <v>581</v>
       </c>
     </row>
@@ -7981,7 +8512,7 @@
       <c r="D347" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E347" s="6" t="s">
+      <c r="E347" s="17" t="s">
         <v>584</v>
       </c>
     </row>
@@ -7998,7 +8529,7 @@
       <c r="D348" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E348" s="6" t="s">
+      <c r="E348" s="17" t="s">
         <v>586</v>
       </c>
     </row>
@@ -8015,7 +8546,7 @@
       <c r="D349" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E349" s="6" t="s">
+      <c r="E349" s="17" t="s">
         <v>589</v>
       </c>
     </row>
@@ -8032,7 +8563,7 @@
       <c r="D350" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E350" s="6" t="s">
+      <c r="E350" s="17" t="s">
         <v>592</v>
       </c>
     </row>
@@ -8049,7 +8580,7 @@
       <c r="D351" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E351" s="6" t="s">
+      <c r="E351" s="17" t="s">
         <v>595</v>
       </c>
     </row>
@@ -8066,7 +8597,7 @@
       <c r="D352" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E352" s="6" t="s">
+      <c r="E352" s="17" t="s">
         <v>598</v>
       </c>
     </row>
@@ -8083,7 +8614,7 @@
       <c r="D353" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E353" s="6" t="s">
+      <c r="E353" s="17" t="s">
         <v>600</v>
       </c>
     </row>
@@ -8100,7 +8631,7 @@
       <c r="D354" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E354" s="6" t="s">
+      <c r="E354" s="17" t="s">
         <v>603</v>
       </c>
     </row>
@@ -8117,7 +8648,7 @@
       <c r="D355" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E355" s="6" t="s">
+      <c r="E355" s="17" t="s">
         <v>605</v>
       </c>
     </row>
@@ -8134,7 +8665,7 @@
       <c r="D356" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E356" s="6" t="s">
+      <c r="E356" s="17" t="s">
         <v>608</v>
       </c>
     </row>
@@ -8870,10 +9401,94 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="0" t="n"/>
-      <c r="B409" s="0" t="n"/>
-      <c r="C409" s="0" t="n"/>
-      <c r="D409" s="0" t="n"/>
+      <c r="A409" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B409" s="0" t="s">
+        <v>686</v>
+      </c>
+      <c r="C409" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D409" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="0" t="s">
+        <v>687</v>
+      </c>
+      <c r="B410" s="0" t="s">
+        <v>688</v>
+      </c>
+      <c r="C410" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D410" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="0" t="s">
+        <v>689</v>
+      </c>
+      <c r="B411" s="0" t="s">
+        <v>690</v>
+      </c>
+      <c r="C411" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D411" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="B412" s="0" t="s">
+        <v>692</v>
+      </c>
+      <c r="C412" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D412" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="0" t="s">
+        <v>693</v>
+      </c>
+      <c r="B413" s="0" t="s">
+        <v>694</v>
+      </c>
+      <c r="C413" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D413" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="0" t="s">
+        <v>695</v>
+      </c>
+      <c r="B414" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C414" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D414" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="0" t="n"/>
+      <c r="B415" s="0" t="n"/>
+      <c r="C415" s="0" t="n"/>
+      <c r="D415" s="0" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -8933,266 +9548,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
     </row>
     <row r="3" ht="60" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>695</v>
+        <v>705</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>696</v>
+        <v>706</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>697</v>
+        <v>707</v>
       </c>
     </row>
     <row r="5" ht="60" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>698</v>
+        <v>708</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>699</v>
+        <v>709</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
     </row>
     <row r="6" ht="60" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>701</v>
+        <v>711</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>702</v>
+        <v>712</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
     </row>
     <row r="7" ht="60" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>705</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>706</v>
+        <v>716</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>707</v>
+        <v>717</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>709</v>
+        <v>719</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>710</v>
+        <v>720</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>712</v>
+        <v>722</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>715</v>
+        <v>725</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>716</v>
+        <v>726</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>717</v>
+        <v>727</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>718</v>
+        <v>728</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>721</v>
+        <v>731</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>723</v>
+        <v>733</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>724</v>
+        <v>734</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>729</v>
+        <v>739</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>731</v>
+        <v>741</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>732</v>
+        <v>742</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>733</v>
+        <v>743</v>
       </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>734</v>
+        <v>744</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>737</v>
+        <v>747</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>739</v>
+        <v>749</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
     </row>
     <row r="21" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>742</v>
+        <v>752</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
     </row>
     <row r="22" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>745</v>
+        <v>755</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
     </row>
     <row r="23" ht="60" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>747</v>
+        <v>757</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>748</v>
+        <v>758</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
     </row>
     <row r="24" ht="60" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>749</v>
+        <v>759</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
     </row>
     <row r="25" ht="60" customHeight="1"/>
@@ -9231,423 +9846,423 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>751</v>
+        <v>761</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>752</v>
+        <v>762</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="E1" s="0" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>700</v>
+        <v>710</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>756</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>757</v>
+        <v>766</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>730</v>
+        <v>740</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>759</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>760</v>
+        <v>769</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>763</v>
+        <v>772</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>767</v>
+        <v>776</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>714</v>
+        <v>724</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>770</v>
+        <v>779</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>738</v>
+        <v>748</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>771</v>
+        <v>781</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>773</v>
+        <v>782</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>774</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>775</v>
+        <v>784</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>776</v>
+        <v>786</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>777</v>
+        <v>787</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>779</v>
+        <v>788</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>780</v>
+        <v>790</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>781</v>
+        <v>791</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>783</v>
+        <v>792</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>787</v>
+        <v>796</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>788</v>
+        <v>798</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>789</v>
+        <v>799</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>789</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>790</v>
+        <v>799</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>719</v>
+        <v>729</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>791</v>
+        <v>801</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>793</v>
+        <v>802</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>803</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>797</v>
+        <v>806</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>800</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>801</v>
+        <v>810</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>805</v>
+        <v>814</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>808</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>809</v>
+        <v>818</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>810</v>
+        <v>820</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>811</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>812</v>
+        <v>821</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>822</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>814</v>
+        <v>824</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>815</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>816</v>
+        <v>825</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>694</v>
+        <v>704</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>819</v>
+        <v>828</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>829</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>822</v>
+        <v>831</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>832</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>823</v>
+        <v>833</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>824</v>
+        <v>834</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>826</v>
+        <v>835</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>829</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>830</v>
+        <v>839</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>833</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>834</v>
+        <v>843</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>836</v>
+        <v>846</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>837</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>838</v>
+        <v>847</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>839</v>
+        <v>849</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>842</v>
+        <v>851</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>843</v>
+        <v>853</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>844</v>
+        <v>854</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>846</v>
+        <v>855</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>847</v>
+        <v>857</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>848</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>849</v>
+        <v>858</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>859</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>741</v>
+        <v>751</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>850</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>851</v>
+        <v>860</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>861</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>852</v>
+        <v>862</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>853</v>
+        <v>863</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>854</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>855</v>
+        <v>864</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>865</v>
       </c>
     </row>
   </sheetData>
@@ -9692,7 +10307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9702,60 +10317,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>857</v>
+      <c r="A2" s="17" t="s">
+        <v>867</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>859</v>
-      </c>
+      <c r="A5" s="0" t="n"/>
       <c r="B5" s="0" t="n"/>
       <c r="C5" s="0" t="n"/>
       <c r="D5" s="0" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>860</v>
-      </c>
+      <c r="A6" s="0" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
-        <v>861</v>
-      </c>
+      <c r="A7" s="0" t="n"/>
+      <c r="B7" s="0" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="s">
-        <v>862</v>
-      </c>
+      <c r="A8" s="0" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="0" t="s">
-        <v>863</v>
-      </c>
+      <c r="A9" s="0" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="s">
-        <v>864</v>
-      </c>
+      <c r="A10" s="0" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>865</v>
-      </c>
+      <c r="A11" s="0" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>866</v>
+      <c r="A12" s="0" t="n"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="0" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="0" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>870</v>
       </c>
     </row>
   </sheetData>
@@ -9782,7 +10404,7 @@
   <sheetData>
     <row r="1">
       <c r="C1" s="0" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
     </row>
     <row r="2">
@@ -9827,7 +10449,7 @@
         <v>678</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
     </row>
     <row r="6">
@@ -9838,7 +10460,7 @@
         <v>341</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="D6" s="0" t="n"/>
     </row>
@@ -9850,7 +10472,7 @@
         <v>461</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="D7" s="0" t="n"/>
     </row>
@@ -9862,7 +10484,7 @@
         <v>227</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="D8" s="0" t="n"/>
     </row>
@@ -9874,7 +10496,7 @@
         <v>364</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="D9" s="0" t="n"/>
     </row>
@@ -9886,7 +10508,7 @@
         <v>634</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="D10" s="0" t="n"/>
     </row>
@@ -9895,10 +10517,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="D11" s="0" t="n"/>
     </row>
@@ -9907,10 +10529,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="D12" s="0" t="n"/>
     </row>
@@ -9922,7 +10544,7 @@
         <v>191</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="D13" s="0" t="n"/>
     </row>
@@ -10029,7 +10651,7 @@
     <row r="27">
       <c r="A27" s="0" t="n"/>
       <c r="B27" s="0" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
     </row>
     <row r="28">
@@ -10044,4 +10666,469 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A3:G38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="14.544" defaultRowHeight="15"/>
+  <cols>
+    <col width="72.288" customWidth="1" min="2" max="2"/>
+  </cols>
+  <sheetData>
+    <row r="1"/>
+    <row r="3">
+      <c r="B3" s="0" t="s">
+        <v>878</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>879</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>880</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>881</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>883</v>
+      </c>
+      <c r="D4" s="6" t="n"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="0" t="s">
+        <v>884</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>885</v>
+      </c>
+      <c r="D5" s="6" t="n">
+        <v>1.409722222222222</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="0" t="s">
+        <v>887</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>888</v>
+      </c>
+      <c r="D6" s="6" t="n">
+        <v>2.436805555555555</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="14" t="s">
+        <v>890</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>891</v>
+      </c>
+      <c r="D7" s="15" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="F7" s="14" t="n"/>
+      <c r="G7" s="14" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="14" t="s">
+        <v>893</v>
+      </c>
+      <c r="C8" s="16" t="n"/>
+      <c r="D8" s="15" t="n">
+        <v>0.5326388888888889</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="F8" s="14" t="n"/>
+      <c r="G8" s="14" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="C9" s="16" t="n"/>
+      <c r="D9" s="15" t="n">
+        <v>0.3770833333333333</v>
+      </c>
+      <c r="E9" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="F9" s="14" t="n"/>
+      <c r="G9" s="14" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="14" t="s">
+        <v>895</v>
+      </c>
+      <c r="C10" s="16" t="n"/>
+      <c r="D10" s="15" t="n">
+        <v>0.2729166666666666</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="F10" s="14" t="n"/>
+      <c r="G10" s="14" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="0" t="s">
+        <v>897</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>0.8083333333333333</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="0" t="s">
+        <v>900</v>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>0.7479166666666667</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="0" t="s">
+        <v>901</v>
+      </c>
+      <c r="D15" s="7" t="n">
+        <v>0.9944444444444445</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="0" t="s">
+        <v>902</v>
+      </c>
+      <c r="D16" s="7" t="n">
+        <v>0.6479166666666667</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="0" t="s">
+        <v>903</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>904</v>
+      </c>
+      <c r="D17" s="6" t="n">
+        <v>2.461111111111111</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="0" t="s">
+        <v>905</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>906</v>
+      </c>
+      <c r="D18" s="6" t="n">
+        <v>2.345833333333333</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="0" t="s">
+        <v>908</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>909</v>
+      </c>
+      <c r="D21" s="7" t="n">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="0" t="s">
+        <v>911</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>912</v>
+      </c>
+      <c r="D22" s="7" t="n">
+        <v>0.3166666666666667</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="0" t="s">
+        <v>913</v>
+      </c>
+      <c r="C23" s="0" t="n"/>
+      <c r="D23" s="7" t="n">
+        <v>0.3194444444444444</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="n"/>
+      <c r="B24" s="0" t="s">
+        <v>914</v>
+      </c>
+      <c r="C24" s="0" t="n"/>
+      <c r="D24" s="7" t="n">
+        <v>0.4826388888888889</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="0" t="s">
+        <v>915</v>
+      </c>
+      <c r="C25" s="0" t="n"/>
+      <c r="D25" s="7" t="n">
+        <v>0.3916666666666667</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="0" t="s">
+        <v>916</v>
+      </c>
+      <c r="C26" s="0" t="n"/>
+      <c r="D26" s="7" t="n">
+        <v>0.4451388888888889</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="n"/>
+      <c r="B27" s="0" t="s">
+        <v>917</v>
+      </c>
+      <c r="C27" s="0" t="n"/>
+      <c r="D27" s="7" t="n">
+        <v>0.4333333333333333</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="0" t="s">
+        <v>918</v>
+      </c>
+      <c r="C28" s="0" t="n"/>
+      <c r="D28" s="7" t="n">
+        <v>0.3534722222222222</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="0" t="s">
+        <v>919</v>
+      </c>
+      <c r="C29" s="0" t="n"/>
+      <c r="D29" s="7" t="n">
+        <v>0.3715277777777778</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="0" t="s">
+        <v>920</v>
+      </c>
+      <c r="C30" s="0" t="n"/>
+      <c r="D30" s="7" t="n">
+        <v>0.3222222222222222</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" s="0" t="s">
+        <v>921</v>
+      </c>
+      <c r="C31" s="0" t="n"/>
+      <c r="D31" s="7" t="n">
+        <v>0.3041666666666666</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="E32" s="0" t="n"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="0" t="s">
+        <v>923</v>
+      </c>
+      <c r="C34" s="17" t="s">
+        <v>924</v>
+      </c>
+      <c r="D34" s="7" t="n">
+        <v>0.08333333333333333</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="0" t="s">
+        <v>926</v>
+      </c>
+      <c r="C35" s="17" t="s">
+        <v>927</v>
+      </c>
+      <c r="D35" s="7" t="n">
+        <v>0.1076388888888889</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="14" t="s">
+        <v>928</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>929</v>
+      </c>
+      <c r="D36" s="15" t="n">
+        <v>0.1069444444444444</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>925</v>
+      </c>
+      <c r="F36" s="14" t="n"/>
+      <c r="G36" s="14" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="0" t="s">
+        <v>930</v>
+      </c>
+      <c r="C37" s="17" t="s">
+        <v>931</v>
+      </c>
+      <c r="D37" s="7" t="n">
+        <v>0.1270833333333333</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="0" t="s">
+        <v>932</v>
+      </c>
+      <c r="C38" s="17" t="s">
+        <v>933</v>
+      </c>
+      <c r="D38" s="7" t="n">
+        <v>0.1277777777777778</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>925</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="C22:C31"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C34" display="BV1iK4y1A7wf" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C22" display="BV1154y1s7Fs" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C21" display="BV1Zo4y1U78F" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C13" display="BV15S4y1x7tr" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C6" display="BV1wy421h7vJ" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C7" display="BV1hq4y1671H" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C5" display="BV1FsXCYcExj" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C35" display="BV1pV4y1G7tq" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C36" display="BV1gZ4y1u7s3" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C17" display="BV18m4y1F7U8" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C18" display="BV1L8411h7z2" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C37" display="BV1fb421E7Uc" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="C38" display="BV1gW421R75A" r:id="rId13"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/tools/input.xlsx
+++ b/tools/input.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="938">
   <si>
     <t>歌名</t>
   </si>
@@ -2112,6 +2112,18 @@
   </si>
   <si>
     <t>孤勇者</t>
+  </si>
+  <si>
+    <t>茶花开了</t>
+  </si>
+  <si>
+    <t>王睿卓</t>
+  </si>
+  <si>
+    <t>暖一杯茶</t>
+  </si>
+  <si>
+    <t>邵帅</t>
   </si>
   <si>
     <t>标题</t>
@@ -2655,6 +2667,9 @@
   </si>
   <si>
     <t>试歌</t>
+  </si>
+  <si>
+    <t>v</t>
   </si>
   <si>
     <t>羞答答的玫瑰静悄悄的开</t>
@@ -2742,9 +2757,6 @@
     <t>BV1hq4y1671H</t>
   </si>
   <si>
-    <t>v</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <rFont val="Arial"/>
@@ -3148,7 +3160,7 @@
     <numFmt numFmtId="164" formatCode="[hh]:mm"/>
     <numFmt numFmtId="165" formatCode="hh:mm"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="9">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -3168,17 +3180,6 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <color rgb="FF000000"/>
-      <sz val="10"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <color rgb="FF000000"/>
       <sz val="10"/>
     </font>
     <font>
@@ -3243,7 +3244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -3258,31 +3259,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -3717,7 +3704,7 @@
       <c r="D9" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="17" t="s">
+      <c r="E9" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -4202,7 +4189,7 @@
       <c r="D43" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E43" s="17" t="s">
+      <c r="E43" s="11" t="s">
         <v>88</v>
       </c>
     </row>
@@ -4751,7 +4738,7 @@
       <c r="D82" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E82" s="17" t="s">
+      <c r="E82" s="11" t="s">
         <v>158</v>
       </c>
     </row>
@@ -4978,7 +4965,7 @@
       <c r="D98" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E98" s="17" t="s">
+      <c r="E98" s="11" t="s">
         <v>183</v>
       </c>
     </row>
@@ -5345,7 +5332,7 @@
       <c r="D124" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E124" s="17" t="s">
+      <c r="E124" s="11" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5866,7 +5853,7 @@
       <c r="D161" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E161" s="17" t="s">
+      <c r="E161" s="11" t="s">
         <v>290</v>
       </c>
     </row>
@@ -6163,7 +6150,7 @@
       <c r="D182" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E182" s="17" t="s">
+      <c r="E182" s="11" t="s">
         <v>322</v>
       </c>
     </row>
@@ -6544,7 +6531,7 @@
       <c r="D209" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E209" s="17" t="s">
+      <c r="E209" s="11" t="s">
         <v>365</v>
       </c>
     </row>
@@ -6617,7 +6604,7 @@
       <c r="D214" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E214" s="17" t="s">
+      <c r="E214" s="11" t="s">
         <v>373</v>
       </c>
     </row>
@@ -6634,7 +6621,7 @@
       <c r="D215" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E215" s="17" t="s">
+      <c r="E215" s="11" t="s">
         <v>375</v>
       </c>
     </row>
@@ -7071,7 +7058,7 @@
       <c r="D246" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E246" s="17" t="s">
+      <c r="E246" s="11" t="s">
         <v>420</v>
       </c>
     </row>
@@ -7634,7 +7621,7 @@
       <c r="D286" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E286" s="17" t="s">
+      <c r="E286" s="11" t="s">
         <v>483</v>
       </c>
     </row>
@@ -7721,7 +7708,7 @@
       <c r="D292" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E292" s="17" t="s">
+      <c r="E292" s="11" t="s">
         <v>496</v>
       </c>
     </row>
@@ -7864,7 +7851,7 @@
       <c r="D302" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E302" s="17" t="s">
+      <c r="E302" s="11" t="s">
         <v>511</v>
       </c>
     </row>
@@ -7937,7 +7924,7 @@
       <c r="D307" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E307" s="17" t="s">
+      <c r="E307" s="11" t="s">
         <v>520</v>
       </c>
     </row>
@@ -8262,7 +8249,7 @@
       <c r="D330" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E330" s="17" t="s">
+      <c r="E330" s="11" t="s">
         <v>555</v>
       </c>
     </row>
@@ -8321,7 +8308,7 @@
       <c r="D334" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E334" s="17" t="s">
+      <c r="E334" s="11" t="s">
         <v>563</v>
       </c>
     </row>
@@ -8478,7 +8465,7 @@
       <c r="D345" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E345" s="17" t="s">
+      <c r="E345" s="11" t="s">
         <v>579</v>
       </c>
     </row>
@@ -8495,7 +8482,7 @@
       <c r="D346" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E346" s="17" t="s">
+      <c r="E346" s="11" t="s">
         <v>581</v>
       </c>
     </row>
@@ -8512,7 +8499,7 @@
       <c r="D347" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E347" s="17" t="s">
+      <c r="E347" s="11" t="s">
         <v>584</v>
       </c>
     </row>
@@ -8529,7 +8516,7 @@
       <c r="D348" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E348" s="17" t="s">
+      <c r="E348" s="11" t="s">
         <v>586</v>
       </c>
     </row>
@@ -8546,7 +8533,7 @@
       <c r="D349" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E349" s="17" t="s">
+      <c r="E349" s="11" t="s">
         <v>589</v>
       </c>
     </row>
@@ -8563,7 +8550,7 @@
       <c r="D350" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E350" s="17" t="s">
+      <c r="E350" s="11" t="s">
         <v>592</v>
       </c>
     </row>
@@ -8580,7 +8567,7 @@
       <c r="D351" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="E351" s="17" t="s">
+      <c r="E351" s="11" t="s">
         <v>595</v>
       </c>
     </row>
@@ -8597,7 +8584,7 @@
       <c r="D352" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E352" s="17" t="s">
+      <c r="E352" s="11" t="s">
         <v>598</v>
       </c>
     </row>
@@ -8614,7 +8601,7 @@
       <c r="D353" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E353" s="17" t="s">
+      <c r="E353" s="11" t="s">
         <v>600</v>
       </c>
     </row>
@@ -8631,7 +8618,7 @@
       <c r="D354" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="E354" s="17" t="s">
+      <c r="E354" s="11" t="s">
         <v>603</v>
       </c>
     </row>
@@ -8648,7 +8635,7 @@
       <c r="D355" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E355" s="17" t="s">
+      <c r="E355" s="11" t="s">
         <v>605</v>
       </c>
     </row>
@@ -8665,7 +8652,7 @@
       <c r="D356" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="E356" s="17" t="s">
+      <c r="E356" s="11" t="s">
         <v>608</v>
       </c>
     </row>
@@ -8996,7 +8983,7 @@
     </row>
     <row r="380">
       <c r="A380" s="0" t="s">
-        <v>386</v>
+        <v>646</v>
       </c>
       <c r="B380" s="0" t="s">
         <v>387</v>
@@ -9010,7 +8997,7 @@
     </row>
     <row r="381">
       <c r="A381" s="0" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B381" s="0" t="s">
         <v>387</v>
@@ -9024,7 +9011,7 @@
     </row>
     <row r="382">
       <c r="A382" s="0" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B382" s="0" t="s">
         <v>387</v>
@@ -9038,7 +9025,7 @@
     </row>
     <row r="383">
       <c r="A383" s="0" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B383" s="0" t="s">
         <v>387</v>
@@ -9052,7 +9039,7 @@
     </row>
     <row r="384">
       <c r="A384" s="0" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B384" s="0" t="s">
         <v>387</v>
@@ -9066,7 +9053,7 @@
     </row>
     <row r="385">
       <c r="A385" s="0" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B385" s="0" t="s">
         <v>387</v>
@@ -9080,7 +9067,7 @@
     </row>
     <row r="386">
       <c r="A386" s="0" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B386" s="0" t="s">
         <v>387</v>
@@ -9094,10 +9081,10 @@
     </row>
     <row r="387">
       <c r="A387" s="0" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B387" s="0" t="s">
-        <v>387</v>
+        <v>654</v>
       </c>
       <c r="C387" s="0" t="s">
         <v>7</v>
@@ -9108,10 +9095,10 @@
     </row>
     <row r="388">
       <c r="A388" s="0" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B388" s="0" t="s">
-        <v>654</v>
+        <v>546</v>
       </c>
       <c r="C388" s="0" t="s">
         <v>7</v>
@@ -9121,8 +9108,8 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="0" t="s">
-        <v>655</v>
+      <c r="A389" s="3" t="s">
+        <v>656</v>
       </c>
       <c r="B389" s="0" t="s">
         <v>546</v>
@@ -9130,30 +9117,30 @@
       <c r="C389" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D389" s="0" t="s">
-        <v>8</v>
+      <c r="D389" s="3" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="3" t="s">
-        <v>656</v>
+      <c r="A390" s="0" t="s">
+        <v>657</v>
       </c>
       <c r="B390" s="0" t="s">
-        <v>546</v>
+        <v>430</v>
       </c>
       <c r="C390" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D390" s="3" t="s">
-        <v>284</v>
+      <c r="D390" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="0" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B391" s="0" t="s">
-        <v>430</v>
+        <v>659</v>
       </c>
       <c r="C391" s="0" t="s">
         <v>7</v>
@@ -9164,10 +9151,10 @@
     </row>
     <row r="392">
       <c r="A392" s="0" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B392" s="0" t="s">
-        <v>659</v>
+        <v>55</v>
       </c>
       <c r="C392" s="0" t="s">
         <v>7</v>
@@ -9177,11 +9164,11 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="0" t="s">
-        <v>660</v>
+      <c r="A393" s="3" t="s">
+        <v>661</v>
       </c>
       <c r="B393" s="0" t="s">
-        <v>55</v>
+        <v>662</v>
       </c>
       <c r="C393" s="0" t="s">
         <v>7</v>
@@ -9191,11 +9178,11 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="3" t="s">
-        <v>661</v>
+      <c r="A394" s="0" t="s">
+        <v>663</v>
       </c>
       <c r="B394" s="0" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="C394" s="0" t="s">
         <v>7</v>
@@ -9206,10 +9193,10 @@
     </row>
     <row r="395">
       <c r="A395" s="0" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B395" s="0" t="s">
-        <v>664</v>
+        <v>236</v>
       </c>
       <c r="C395" s="0" t="s">
         <v>7</v>
@@ -9220,10 +9207,10 @@
     </row>
     <row r="396">
       <c r="A396" s="0" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B396" s="0" t="s">
-        <v>236</v>
+        <v>667</v>
       </c>
       <c r="C396" s="0" t="s">
         <v>7</v>
@@ -9234,10 +9221,10 @@
     </row>
     <row r="397">
       <c r="A397" s="0" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B397" s="0" t="s">
-        <v>667</v>
+        <v>55</v>
       </c>
       <c r="C397" s="0" t="s">
         <v>7</v>
@@ -9247,11 +9234,11 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="0" t="s">
-        <v>668</v>
+      <c r="A398" s="3" t="s">
+        <v>669</v>
       </c>
       <c r="B398" s="0" t="s">
-        <v>55</v>
+        <v>670</v>
       </c>
       <c r="C398" s="0" t="s">
         <v>7</v>
@@ -9262,35 +9249,35 @@
     </row>
     <row r="399">
       <c r="A399" s="3" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="B399" s="0" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="C399" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D399" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="3" t="s">
-        <v>671</v>
+      <c r="A400" s="0" t="s">
+        <v>673</v>
       </c>
       <c r="B400" s="0" t="s">
-        <v>672</v>
+        <v>15</v>
       </c>
       <c r="C400" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D400" s="0" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="0" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B401" s="0" t="s">
         <v>15</v>
@@ -9304,10 +9291,10 @@
     </row>
     <row r="402">
       <c r="A402" s="0" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B402" s="0" t="s">
-        <v>15</v>
+        <v>387</v>
       </c>
       <c r="C402" s="0" t="s">
         <v>7</v>
@@ -9318,10 +9305,10 @@
     </row>
     <row r="403">
       <c r="A403" s="0" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B403" s="0" t="s">
-        <v>387</v>
+        <v>677</v>
       </c>
       <c r="C403" s="0" t="s">
         <v>7</v>
@@ -9331,11 +9318,11 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="0" t="s">
-        <v>676</v>
+      <c r="A404" s="3" t="s">
+        <v>678</v>
       </c>
       <c r="B404" s="0" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="C404" s="0" t="s">
         <v>7</v>
@@ -9345,11 +9332,11 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="3" t="s">
-        <v>678</v>
+      <c r="A405" s="0" t="s">
+        <v>680</v>
       </c>
       <c r="B405" s="0" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="C405" s="0" t="s">
         <v>7</v>
@@ -9360,24 +9347,24 @@
     </row>
     <row r="406">
       <c r="A406" s="0" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B406" s="0" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="C406" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D406" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="0" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B407" s="0" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="C407" s="0" t="s">
         <v>7</v>
@@ -9388,24 +9375,24 @@
     </row>
     <row r="408">
       <c r="A408" s="0" t="s">
-        <v>684</v>
+        <v>52</v>
       </c>
       <c r="B408" s="0" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C408" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D408" s="0" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="0" t="s">
-        <v>52</v>
+        <v>687</v>
       </c>
       <c r="B409" s="0" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C409" s="0" t="s">
         <v>7</v>
@@ -9416,24 +9403,24 @@
     </row>
     <row r="410">
       <c r="A410" s="0" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B410" s="0" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="C410" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D410" s="0" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="0" t="s">
-        <v>689</v>
+      <c r="A411" s="3" t="s">
+        <v>691</v>
       </c>
       <c r="B411" s="0" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="C411" s="0" t="s">
         <v>7</v>
@@ -9443,25 +9430,25 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="3" t="s">
-        <v>691</v>
+      <c r="A412" s="0" t="s">
+        <v>693</v>
       </c>
       <c r="B412" s="0" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="C412" s="0" t="s">
         <v>7</v>
       </c>
       <c r="D412" s="0" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="0" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B413" s="0" t="s">
-        <v>694</v>
+        <v>153</v>
       </c>
       <c r="C413" s="0" t="s">
         <v>7</v>
@@ -9472,10 +9459,10 @@
     </row>
     <row r="414">
       <c r="A414" s="0" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="B414" s="0" t="s">
-        <v>153</v>
+        <v>697</v>
       </c>
       <c r="C414" s="0" t="s">
         <v>7</v>
@@ -9485,10 +9472,18 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="0" t="n"/>
-      <c r="B415" s="0" t="n"/>
-      <c r="C415" s="0" t="n"/>
-      <c r="D415" s="0" t="n"/>
+      <c r="A415" s="0" t="s">
+        <v>698</v>
+      </c>
+      <c r="B415" s="0" t="s">
+        <v>699</v>
+      </c>
+      <c r="C415" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D415" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9548,266 +9543,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="3" ht="60" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
     <row r="5" ht="60" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="6" ht="60" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="7" ht="60" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>731</v>
+        <v>735</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>734</v>
+        <v>738</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>735</v>
+        <v>739</v>
       </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>736</v>
+        <v>740</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>737</v>
+        <v>741</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>738</v>
+        <v>742</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>739</v>
+        <v>743</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>743</v>
+        <v>747</v>
       </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>744</v>
+        <v>748</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>749</v>
+        <v>753</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
     </row>
     <row r="21" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
     </row>
     <row r="22" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>754</v>
+        <v>758</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>755</v>
+        <v>759</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
     </row>
     <row r="23" ht="60" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
     </row>
     <row r="24" ht="60" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="25" ht="60" customHeight="1"/>
@@ -9846,423 +9841,423 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="E1" s="0" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>766</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>767</v>
+        <v>770</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>740</v>
+        <v>744</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>768</v>
+        <v>772</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>769</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>770</v>
+        <v>773</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>772</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>773</v>
+        <v>776</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>774</v>
+        <v>778</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>775</v>
+        <v>779</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>776</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>777</v>
+        <v>780</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>778</v>
+        <v>782</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>779</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>780</v>
+        <v>783</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>748</v>
+        <v>752</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>782</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>783</v>
+        <v>786</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>784</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>785</v>
+        <v>788</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>789</v>
+        <v>792</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>793</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>792</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>793</v>
+        <v>796</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>797</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>797</v>
+        <v>800</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>800</v>
+        <v>803</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>803</v>
+        <v>806</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>807</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>806</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>807</v>
+        <v>810</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>811</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>810</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>811</v>
+        <v>814</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>815</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>814</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>815</v>
+        <v>818</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>818</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>819</v>
+        <v>822</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>823</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>820</v>
+        <v>824</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>821</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>822</v>
+        <v>825</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>826</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>825</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>826</v>
+        <v>829</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>830</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>827</v>
+        <v>831</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>828</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>829</v>
+        <v>832</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>833</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>732</v>
+        <v>736</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>830</v>
+        <v>834</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>831</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>832</v>
+        <v>835</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>836</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>834</v>
+        <v>838</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>836</v>
+        <v>839</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>840</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>837</v>
+        <v>841</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>838</v>
+        <v>842</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>839</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>840</v>
+        <v>843</v>
+      </c>
+      <c r="D23" s="12" t="s">
+        <v>844</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>841</v>
+        <v>845</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>843</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>844</v>
+        <v>847</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>847</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>848</v>
+        <v>851</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>852</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>851</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>852</v>
+        <v>855</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>856</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>856</v>
+        <v>859</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>756</v>
+        <v>760</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>858</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>859</v>
+        <v>862</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>863</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>753</v>
+        <v>757</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>860</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>861</v>
+        <v>864</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>865</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>864</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>865</v>
+        <v>868</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>869</v>
       </c>
     </row>
   </sheetData>
@@ -10317,22 +10312,24 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="17" t="s">
-        <v>867</v>
+      <c r="A2" s="11" t="s">
+        <v>871</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n"/>
-      <c r="B5" s="0" t="n"/>
+      <c r="B5" s="0" t="s">
+        <v>873</v>
+      </c>
       <c r="C5" s="0" t="n"/>
       <c r="D5" s="0" t="n"/>
     </row>
@@ -10372,12 +10369,12 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
     </row>
   </sheetData>
@@ -10404,7 +10401,7 @@
   <sheetData>
     <row r="1">
       <c r="C1" s="0" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
     </row>
     <row r="2">
@@ -10449,7 +10446,7 @@
         <v>678</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
     </row>
     <row r="6">
@@ -10460,7 +10457,7 @@
         <v>341</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="D6" s="0" t="n"/>
     </row>
@@ -10472,7 +10469,7 @@
         <v>461</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="D7" s="0" t="n"/>
     </row>
@@ -10484,7 +10481,7 @@
         <v>227</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="D8" s="0" t="n"/>
     </row>
@@ -10496,7 +10493,7 @@
         <v>364</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="D9" s="0" t="n"/>
     </row>
@@ -10508,7 +10505,7 @@
         <v>634</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
       <c r="D10" s="0" t="n"/>
     </row>
@@ -10517,10 +10514,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="D11" s="0" t="n"/>
     </row>
@@ -10529,10 +10526,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="D12" s="0" t="n"/>
     </row>
@@ -10544,7 +10541,7 @@
         <v>191</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="D13" s="0" t="n"/>
     </row>
@@ -10651,7 +10648,7 @@
     <row r="27">
       <c r="A27" s="0" t="n"/>
       <c r="B27" s="0" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
     </row>
     <row r="28">
@@ -10688,342 +10685,342 @@
     <row r="1"/>
     <row r="3">
       <c r="B3" s="0" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="D4" s="6" t="n"/>
     </row>
     <row r="5">
       <c r="B5" s="0" t="s">
-        <v>884</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>885</v>
+        <v>889</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>890</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>1.409722222222222</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="0" t="s">
-        <v>887</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>888</v>
+        <v>892</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>893</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>2.436805555555555</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="14" t="s">
-        <v>890</v>
-      </c>
-      <c r="C7" s="19" t="s">
+      <c r="B7" s="8" t="s">
+        <v>895</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>896</v>
+      </c>
+      <c r="D7" s="9" t="n">
+        <v>0.5041666666666667</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>891</v>
       </c>
-      <c r="D7" s="15" t="n">
-        <v>0.5041666666666667</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>886</v>
-      </c>
-      <c r="F7" s="14" t="n"/>
-      <c r="G7" s="14" t="s">
-        <v>892</v>
+      <c r="F7" s="8" t="n"/>
+      <c r="G7" s="8" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="14" t="s">
-        <v>893</v>
-      </c>
-      <c r="C8" s="16" t="n"/>
-      <c r="D8" s="15" t="n">
+      <c r="B8" s="8" t="s">
+        <v>897</v>
+      </c>
+      <c r="C8" s="10" t="n"/>
+      <c r="D8" s="9" t="n">
         <v>0.5326388888888889</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>886</v>
-      </c>
-      <c r="F8" s="14" t="n"/>
-      <c r="G8" s="14" t="s">
-        <v>892</v>
+      <c r="E8" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="F8" s="8" t="n"/>
+      <c r="G8" s="8" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="14" t="s">
-        <v>894</v>
-      </c>
-      <c r="C9" s="16" t="n"/>
-      <c r="D9" s="15" t="n">
+      <c r="B9" s="8" t="s">
+        <v>898</v>
+      </c>
+      <c r="C9" s="10" t="n"/>
+      <c r="D9" s="9" t="n">
         <v>0.3770833333333333</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>886</v>
-      </c>
-      <c r="F9" s="14" t="n"/>
-      <c r="G9" s="14" t="s">
-        <v>892</v>
+      <c r="E9" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="F9" s="8" t="n"/>
+      <c r="G9" s="8" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="14" t="s">
-        <v>895</v>
-      </c>
-      <c r="C10" s="16" t="n"/>
-      <c r="D10" s="15" t="n">
+      <c r="B10" s="8" t="s">
+        <v>899</v>
+      </c>
+      <c r="C10" s="10" t="n"/>
+      <c r="D10" s="9" t="n">
         <v>0.2729166666666666</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>886</v>
-      </c>
-      <c r="F10" s="14" t="n"/>
-      <c r="G10" s="14" t="s">
-        <v>892</v>
+      <c r="E10" s="8" t="s">
+        <v>891</v>
+      </c>
+      <c r="F10" s="8" t="n"/>
+      <c r="G10" s="8" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>896</v>
+        <v>900</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="0" t="s">
-        <v>897</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>898</v>
+        <v>901</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>902</v>
       </c>
       <c r="D13" s="7" t="n">
         <v>0.8083333333333333</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="0" t="s">
-        <v>900</v>
+        <v>904</v>
       </c>
       <c r="D14" s="7" t="n">
         <v>0.7479166666666667</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="0" t="s">
-        <v>901</v>
+        <v>905</v>
       </c>
       <c r="D15" s="7" t="n">
         <v>0.9944444444444445</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="0" t="s">
-        <v>902</v>
+        <v>906</v>
       </c>
       <c r="D16" s="7" t="n">
         <v>0.6479166666666667</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="0" t="s">
-        <v>903</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>904</v>
+        <v>907</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>908</v>
       </c>
       <c r="D17" s="6" t="n">
         <v>2.461111111111111</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="0" t="s">
-        <v>905</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>906</v>
+        <v>909</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>910</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>2.345833333333333</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>899</v>
+        <v>903</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="0" t="s">
-        <v>908</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>909</v>
+        <v>912</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>913</v>
       </c>
       <c r="D21" s="7" t="n">
         <v>0.4201388888888889</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="0" t="s">
-        <v>911</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>912</v>
+        <v>915</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>916</v>
       </c>
       <c r="D22" s="7" t="n">
         <v>0.3166666666666667</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="0" t="s">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="C23" s="0" t="n"/>
       <c r="D23" s="7" t="n">
         <v>0.3194444444444444</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="n"/>
       <c r="B24" s="0" t="s">
-        <v>914</v>
+        <v>918</v>
       </c>
       <c r="C24" s="0" t="n"/>
       <c r="D24" s="7" t="n">
         <v>0.4826388888888889</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="0" t="s">
-        <v>915</v>
+        <v>919</v>
       </c>
       <c r="C25" s="0" t="n"/>
       <c r="D25" s="7" t="n">
         <v>0.3916666666666667</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="0" t="s">
-        <v>916</v>
+        <v>920</v>
       </c>
       <c r="C26" s="0" t="n"/>
       <c r="D26" s="7" t="n">
         <v>0.4451388888888889</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="n"/>
       <c r="B27" s="0" t="s">
-        <v>917</v>
+        <v>921</v>
       </c>
       <c r="C27" s="0" t="n"/>
       <c r="D27" s="7" t="n">
         <v>0.4333333333333333</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="0" t="s">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="C28" s="0" t="n"/>
       <c r="D28" s="7" t="n">
         <v>0.3534722222222222</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="0" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="C29" s="0" t="n"/>
       <c r="D29" s="7" t="n">
         <v>0.3715277777777778</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="0" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="C30" s="0" t="n"/>
       <c r="D30" s="7" t="n">
         <v>0.3222222222222222</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="0" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="C31" s="0" t="n"/>
       <c r="D31" s="7" t="n">
         <v>0.3041666666666666</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>910</v>
+        <v>914</v>
       </c>
     </row>
     <row r="32">
@@ -11031,81 +11028,81 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="0" t="s">
-        <v>923</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>924</v>
+        <v>927</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>928</v>
       </c>
       <c r="D34" s="7" t="n">
         <v>0.08333333333333333</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="0" t="s">
-        <v>926</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>927</v>
+        <v>930</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>931</v>
       </c>
       <c r="D35" s="7" t="n">
         <v>0.1076388888888889</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="14" t="s">
-        <v>928</v>
-      </c>
-      <c r="C36" s="20" t="s">
+      <c r="B36" s="8" t="s">
+        <v>932</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>933</v>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>0.1069444444444444</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>929</v>
       </c>
-      <c r="D36" s="15" t="n">
-        <v>0.1069444444444444</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>925</v>
-      </c>
-      <c r="F36" s="14" t="n"/>
-      <c r="G36" s="14" t="s">
-        <v>892</v>
+      <c r="F36" s="8" t="n"/>
+      <c r="G36" s="8" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="0" t="s">
-        <v>930</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>931</v>
+        <v>934</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>935</v>
       </c>
       <c r="D37" s="7" t="n">
         <v>0.1270833333333333</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="0" t="s">
-        <v>932</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>933</v>
+        <v>936</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>937</v>
       </c>
       <c r="D38" s="7" t="n">
         <v>0.1277777777777778</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
     </row>
   </sheetData>

--- a/tools/input.xlsx
+++ b/tools/input.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="976">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="981">
   <si>
     <t>歌名</t>
   </si>
@@ -2238,6 +2238,21 @@
   </si>
   <si>
     <t>https://www.bilibili.com/video/BV1JnGTzKEUf</t>
+  </si>
+  <si>
+    <t>爱情专属权</t>
+  </si>
+  <si>
+    <t>龙梅子、老猫</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1Pr8czuE2i</t>
+  </si>
+  <si>
+    <t>听说你</t>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/BV1jZ8cztEpY</t>
   </si>
   <si>
     <t>标题</t>
@@ -3701,7 +3716,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I430"/>
+  <dimension ref="A1:I432"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9875,6 +9890,40 @@
       </c>
       <c r="E430" s="17" t="s">
         <v>737</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="0" t="s">
+        <v>738</v>
+      </c>
+      <c r="B431" s="0" t="s">
+        <v>739</v>
+      </c>
+      <c r="C431" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D431" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E431" s="17" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="0" t="s">
+        <v>741</v>
+      </c>
+      <c r="B432" s="0" t="s">
+        <v>475</v>
+      </c>
+      <c r="C432" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D432" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E432" s="17" t="s">
+        <v>742</v>
       </c>
     </row>
   </sheetData>
@@ -9924,6 +9973,8 @@
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E404" display="https://www.bilibili.com/video/BV16xoLY8EZz" r:id="rId43"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E146" display="https://www.bilibili.com/video/BV1FnGTzKEgN" r:id="rId44"/>
     <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E430" display="https://www.bilibili.com/video/BV1JnGTzKEUf" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E432" display="https://www.bilibili.com/video/BV1jZ8cztEpY" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E431" display="https://www.bilibili.com/video/BV1Pr8czuE2i" r:id="rId47"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9951,266 +10002,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
     </row>
     <row r="2" ht="60" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="3" ht="60" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="4" ht="60" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
     </row>
     <row r="5" ht="60" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="6" ht="60" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7" ht="60" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
     </row>
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
     </row>
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
     </row>
     <row r="11" ht="60" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
     </row>
     <row r="15" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="16" ht="60" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
     </row>
     <row r="17" ht="60" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
     </row>
     <row r="18" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
     </row>
     <row r="19" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
     </row>
     <row r="20" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
     </row>
     <row r="21" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
     </row>
     <row r="22" ht="60" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>796</v>
+        <v>801</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>797</v>
+        <v>802</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
     </row>
     <row r="23" ht="60" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>800</v>
+        <v>805</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
     </row>
     <row r="24" ht="60" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>801</v>
+        <v>806</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>802</v>
+        <v>807</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
     </row>
     <row r="25" ht="60" customHeight="1"/>
@@ -10249,423 +10300,423 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>803</v>
+        <v>808</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>804</v>
+        <v>809</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>805</v>
+        <v>810</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>806</v>
+        <v>811</v>
       </c>
       <c r="E1" s="0" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>722</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>807</v>
+        <v>812</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>808</v>
+        <v>813</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>809</v>
+        <v>814</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>810</v>
+        <v>815</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>811</v>
+        <v>816</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>819</v>
+        <v>824</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>820</v>
+        <v>825</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>822</v>
+        <v>827</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>823</v>
+        <v>828</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>824</v>
+        <v>829</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>825</v>
+        <v>830</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>826</v>
+        <v>831</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>827</v>
+        <v>832</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>828</v>
+        <v>833</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>829</v>
+        <v>834</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>833</v>
+        <v>838</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>834</v>
+        <v>839</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>835</v>
+        <v>840</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>836</v>
+        <v>841</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>838</v>
+        <v>843</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>839</v>
+        <v>844</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>840</v>
+        <v>845</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>841</v>
+        <v>846</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>842</v>
+        <v>847</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>843</v>
+        <v>848</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>844</v>
+        <v>849</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>846</v>
+        <v>851</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>848</v>
+        <v>853</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>849</v>
+        <v>854</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>851</v>
+        <v>856</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>852</v>
+        <v>857</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>854</v>
+        <v>859</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>856</v>
+        <v>861</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>857</v>
+        <v>862</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>860</v>
+        <v>865</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>861</v>
+        <v>866</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>862</v>
+        <v>867</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>863</v>
+        <v>868</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>864</v>
+        <v>869</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>865</v>
+        <v>870</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>866</v>
+        <v>871</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>867</v>
+        <v>872</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>868</v>
+        <v>873</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>869</v>
+        <v>874</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>870</v>
+        <v>875</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>871</v>
+        <v>876</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>872</v>
+        <v>877</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>873</v>
+        <v>878</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>874</v>
+        <v>879</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>875</v>
+        <v>880</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>877</v>
+        <v>882</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>878</v>
+        <v>883</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>879</v>
+        <v>884</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>881</v>
+        <v>886</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>882</v>
+        <v>887</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>883</v>
+        <v>888</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>884</v>
+        <v>889</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>885</v>
+        <v>890</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>886</v>
+        <v>891</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>887</v>
+        <v>892</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>888</v>
+        <v>893</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>890</v>
+        <v>895</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>891</v>
+        <v>896</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>892</v>
+        <v>897</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>893</v>
+        <v>898</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>894</v>
+        <v>899</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>897</v>
+        <v>902</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>798</v>
+        <v>803</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>898</v>
+        <v>903</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>899</v>
+        <v>904</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>900</v>
+        <v>905</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>795</v>
+        <v>800</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>901</v>
+        <v>906</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>902</v>
+        <v>907</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>903</v>
+        <v>908</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>904</v>
+        <v>909</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>906</v>
+        <v>911</v>
       </c>
     </row>
   </sheetData>
@@ -10720,17 +10771,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>907</v>
+        <v>912</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="17" t="s">
-        <v>908</v>
+        <v>913</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>909</v>
+        <v>914</v>
       </c>
     </row>
     <row r="5">
@@ -10786,22 +10837,22 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="s">
-        <v>911</v>
+        <v>916</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="s">
-        <v>912</v>
+        <v>917</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="s">
-        <v>913</v>
+        <v>918</v>
       </c>
     </row>
   </sheetData>
@@ -10828,7 +10879,7 @@
   <sheetData>
     <row r="1">
       <c r="C1" s="0" t="s">
-        <v>914</v>
+        <v>919</v>
       </c>
     </row>
     <row r="2">
@@ -10873,7 +10924,7 @@
         <v>686</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
     </row>
     <row r="6">
@@ -10884,7 +10935,7 @@
         <v>348</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="D6" s="0" t="n"/>
     </row>
@@ -10896,7 +10947,7 @@
         <v>468</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>915</v>
+        <v>920</v>
       </c>
       <c r="D7" s="0" t="n"/>
     </row>
@@ -10908,7 +10959,7 @@
         <v>230</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="D8" s="0" t="n"/>
     </row>
@@ -10920,7 +10971,7 @@
         <v>371</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="D9" s="0" t="n"/>
     </row>
@@ -10932,7 +10983,7 @@
         <v>642</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>916</v>
+        <v>921</v>
       </c>
       <c r="D10" s="0" t="n"/>
     </row>
@@ -10944,7 +10995,7 @@
         <v>724</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="D11" s="0" t="n"/>
     </row>
@@ -10953,10 +11004,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>918</v>
+        <v>923</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="D12" s="0" t="n"/>
     </row>
@@ -10968,7 +11019,7 @@
         <v>194</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>917</v>
+        <v>922</v>
       </c>
       <c r="D13" s="0" t="n"/>
     </row>
@@ -11075,7 +11126,7 @@
     <row r="27">
       <c r="A27" s="0" t="n"/>
       <c r="B27" s="0" t="s">
-        <v>919</v>
+        <v>924</v>
       </c>
     </row>
     <row r="28">
@@ -11112,342 +11163,342 @@
     <row r="1"/>
     <row r="3">
       <c r="B3" s="0" t="s">
-        <v>920</v>
+        <v>925</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>921</v>
+        <v>926</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>922</v>
+        <v>927</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>923</v>
+        <v>928</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>924</v>
+        <v>929</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="D4" s="6" t="n"/>
     </row>
     <row r="5">
       <c r="B5" s="0" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="D5" s="6" t="n">
         <v>1.409722222222222</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" s="0" t="s">
-        <v>929</v>
+        <v>934</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>930</v>
+        <v>935</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>2.436805555555555</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="s">
-        <v>932</v>
+        <v>937</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>933</v>
+        <v>938</v>
       </c>
       <c r="D7" s="9" t="n">
         <v>0.5041666666666667</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="F7" s="8" t="n"/>
       <c r="G7" s="8" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="s">
-        <v>935</v>
+        <v>940</v>
       </c>
       <c r="C8" s="10" t="n"/>
       <c r="D8" s="9" t="n">
         <v>0.5326388888888889</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="F8" s="8" t="n"/>
       <c r="G8" s="8" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="s">
-        <v>936</v>
+        <v>941</v>
       </c>
       <c r="C9" s="10" t="n"/>
       <c r="D9" s="9" t="n">
         <v>0.3770833333333333</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="F9" s="8" t="n"/>
       <c r="G9" s="8" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" s="8" t="s">
-        <v>937</v>
+        <v>942</v>
       </c>
       <c r="C10" s="10" t="n"/>
       <c r="D10" s="9" t="n">
         <v>0.2729166666666666</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>928</v>
+        <v>933</v>
       </c>
       <c r="F10" s="8" t="n"/>
       <c r="G10" s="8" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>938</v>
+        <v>943</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" s="0" t="s">
-        <v>939</v>
+        <v>944</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>940</v>
+        <v>945</v>
       </c>
       <c r="D13" s="7" t="n">
         <v>0.8083333333333333</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" s="0" t="s">
-        <v>942</v>
+        <v>947</v>
       </c>
       <c r="D14" s="7" t="n">
         <v>0.7479166666666667</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" s="0" t="s">
-        <v>943</v>
+        <v>948</v>
       </c>
       <c r="D15" s="7" t="n">
         <v>0.9944444444444445</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" s="0" t="s">
-        <v>944</v>
+        <v>949</v>
       </c>
       <c r="D16" s="7" t="n">
         <v>0.6479166666666667</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" s="0" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="D17" s="6" t="n">
         <v>2.461111111111111</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" s="0" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="D18" s="6" t="n">
         <v>2.345833333333333</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>941</v>
+        <v>946</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" s="0" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="D21" s="7" t="n">
         <v>0.4201388888888889</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" s="0" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="D22" s="7" t="n">
         <v>0.3166666666666667</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
     </row>
     <row r="23">
       <c r="B23" s="0" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="C23" s="0" t="n"/>
       <c r="D23" s="7" t="n">
         <v>0.3194444444444444</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="n"/>
       <c r="B24" s="0" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="C24" s="0" t="n"/>
       <c r="D24" s="7" t="n">
         <v>0.4826388888888889</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="0" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="C25" s="0" t="n"/>
       <c r="D25" s="7" t="n">
         <v>0.3916666666666667</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="0" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="C26" s="0" t="n"/>
       <c r="D26" s="7" t="n">
         <v>0.4451388888888889</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="n"/>
       <c r="B27" s="0" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="C27" s="0" t="n"/>
       <c r="D27" s="7" t="n">
         <v>0.4333333333333333</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="0" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="C28" s="0" t="n"/>
       <c r="D28" s="7" t="n">
         <v>0.3534722222222222</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="0" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="C29" s="0" t="n"/>
       <c r="D29" s="7" t="n">
         <v>0.3715277777777778</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" s="0" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="C30" s="0" t="n"/>
       <c r="D30" s="7" t="n">
         <v>0.3222222222222222</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" s="0" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="C31" s="0" t="n"/>
       <c r="D31" s="7" t="n">
         <v>0.3041666666666666</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
     </row>
     <row r="32">
@@ -11455,81 +11506,81 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" s="0" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="D34" s="7" t="n">
         <v>0.08333333333333333</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" s="0" t="s">
-        <v>968</v>
+        <v>973</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="D35" s="7" t="n">
         <v>0.1076388888888889</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" s="8" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="D36" s="9" t="n">
         <v>0.1069444444444444</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="F36" s="8" t="n"/>
       <c r="G36" s="8" t="s">
-        <v>934</v>
+        <v>939</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" s="0" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="D37" s="7" t="n">
         <v>0.1270833333333333</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="0" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="D38" s="7" t="n">
         <v>0.1277777777777778</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
     </row>
   </sheetData>
